--- a/docs/backup/cuenta_2200555154.xlsx
+++ b/docs/backup/cuenta_2200555154.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\php-projects\dml2\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\php-projects\dml2\docs\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="251">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -771,6 +771,12 @@
   </si>
   <si>
     <t>2423.76</t>
+  </si>
+  <si>
+    <t>0000857911</t>
+  </si>
+  <si>
+    <t>2423.91</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1099,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
@@ -1108,7 +1114,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41789</v>
+        <v>41792</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -1117,25 +1123,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-30'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000857917', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.45  , 'mo_saldo' =&gt; 2423.76, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-02 22:2:9'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H2" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-02'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000857911', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.15  , 'mo_saldo' =&gt; 2423.91, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-03 20:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41788</v>
+        <v>41789</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1144,16 +1150,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1161,50 +1167,50 @@
         <v>41788</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E3" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41787</v>
+        <v>41788</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41786</v>
+        <v>41787</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1213,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -1222,12 +1228,12 @@
         <v>190</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41785</v>
+        <v>41786</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1236,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -1245,12 +1251,12 @@
         <v>190</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41782</v>
+        <v>41785</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1259,21 +1265,21 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41781</v>
+        <v>41782</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1282,16 +1288,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1299,50 +1305,50 @@
         <v>41781</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E9" t="s">
-        <v>194</v>
+        <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41780</v>
+        <v>41781</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41779</v>
+        <v>41780</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1351,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -1360,12 +1366,12 @@
         <v>197</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41778</v>
+        <v>41779</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1374,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -1383,12 +1389,12 @@
         <v>197</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41775</v>
+        <v>41778</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1397,21 +1403,21 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41774</v>
+        <v>41775</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1420,21 +1426,21 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41773</v>
+        <v>41774</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1443,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -1452,12 +1458,12 @@
         <v>197</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41772</v>
+        <v>41773</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1466,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
@@ -1475,12 +1481,12 @@
         <v>197</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1489,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -1498,12 +1504,12 @@
         <v>197</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1512,21 +1518,21 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1535,21 +1541,21 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1558,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -1567,7 +1573,7 @@
         <v>197</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1575,50 +1581,50 @@
         <v>41766</v>
       </c>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E21" t="s">
-        <v>210</v>
+        <v>4</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41765</v>
+        <v>41766</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>210</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41764</v>
+        <v>41765</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1627,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
@@ -1636,12 +1642,12 @@
         <v>89</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41761</v>
+        <v>41764</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1650,21 +1656,21 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41759</v>
+        <v>41761</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1673,21 +1679,21 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41758</v>
+        <v>41759</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1696,21 +1702,21 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41757</v>
+        <v>41758</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1719,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
@@ -1728,12 +1734,12 @@
         <v>89</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41754</v>
+        <v>41757</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1742,21 +1748,21 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41753</v>
+        <v>41754</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1765,21 +1771,21 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41752</v>
+        <v>41753</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1788,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -1797,12 +1803,12 @@
         <v>89</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1811,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -1820,12 +1826,12 @@
         <v>89</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41750</v>
+        <v>41751</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1834,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -1843,12 +1849,12 @@
         <v>89</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41746</v>
+        <v>41750</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -1857,21 +1863,21 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41745</v>
+        <v>41746</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1880,21 +1886,21 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41744</v>
+        <v>41745</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -1903,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
@@ -1912,12 +1918,12 @@
         <v>89</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41743</v>
+        <v>41744</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -1926,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
@@ -1935,12 +1941,12 @@
         <v>89</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41740</v>
+        <v>41743</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -1949,21 +1955,21 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41739</v>
+        <v>41740</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1972,21 +1978,21 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41738</v>
+        <v>41739</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -1995,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
@@ -2004,12 +2010,12 @@
         <v>89</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41737</v>
+        <v>41738</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -2018,7 +2024,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
@@ -2027,12 +2033,12 @@
         <v>89</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41736</v>
+        <v>41737</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -2041,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
@@ -2050,12 +2056,12 @@
         <v>89</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41733</v>
+        <v>41736</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -2064,16 +2070,16 @@
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2081,50 +2087,50 @@
         <v>41733</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41732</v>
+        <v>41733</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E44" t="s">
         <v>4</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41731</v>
+        <v>41732</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -2133,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
@@ -2142,12 +2148,12 @@
         <v>89</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41730</v>
+        <v>41731</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -2156,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
@@ -2165,12 +2171,12 @@
         <v>89</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -2179,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
@@ -2188,12 +2194,12 @@
         <v>89</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41726</v>
+        <v>41729</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -2202,21 +2208,21 @@
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E48" t="s">
         <v>4</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41724</v>
+        <v>41726</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -2225,21 +2231,21 @@
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E49" t="s">
         <v>4</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41723</v>
+        <v>41724</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -2248,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
@@ -2257,12 +2263,12 @@
         <v>89</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41722</v>
+        <v>41723</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -2271,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
@@ -2280,12 +2286,12 @@
         <v>89</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41719</v>
+        <v>41722</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -2294,21 +2300,21 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E52" t="s">
         <v>4</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41718</v>
+        <v>41719</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -2317,21 +2323,21 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E53" t="s">
         <v>4</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -2340,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
@@ -2349,12 +2355,12 @@
         <v>89</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -2363,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
@@ -2372,12 +2378,12 @@
         <v>89</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -2386,7 +2392,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E56" t="s">
         <v>4</v>
@@ -2395,12 +2401,12 @@
         <v>89</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -2409,21 +2415,21 @@
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E57" t="s">
         <v>4</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41711</v>
+        <v>41712</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -2432,21 +2438,21 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E58" t="s">
         <v>4</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41710</v>
+        <v>41711</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -2455,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E59" t="s">
         <v>4</v>
@@ -2464,12 +2470,12 @@
         <v>89</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41709</v>
+        <v>41710</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -2478,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E60" t="s">
         <v>4</v>
@@ -2487,12 +2493,12 @@
         <v>89</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41708</v>
+        <v>41709</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -2501,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
         <v>4</v>
@@ -2510,12 +2516,12 @@
         <v>89</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41705</v>
+        <v>41708</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -2524,21 +2530,21 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E62" t="s">
         <v>4</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41704</v>
+        <v>41705</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -2547,21 +2553,21 @@
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E63" t="s">
         <v>4</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41703</v>
+        <v>41704</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
@@ -2570,7 +2576,7 @@
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E64" t="s">
         <v>4</v>
@@ -2579,7 +2585,7 @@
         <v>89</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2587,50 +2593,50 @@
         <v>41703</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E65" t="s">
         <v>4</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E66" t="s">
         <v>4</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41697</v>
+        <v>41698</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -2639,21 +2645,21 @@
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E67" t="s">
         <v>4</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41696</v>
+        <v>41697</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -2662,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E68" t="s">
         <v>4</v>
@@ -2671,12 +2677,12 @@
         <v>89</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41695</v>
+        <v>41696</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -2685,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E69" t="s">
         <v>4</v>
@@ -2694,12 +2700,12 @@
         <v>89</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41694</v>
+        <v>41695</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -2708,7 +2714,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" t="s">
         <v>4</v>
@@ -2717,12 +2723,12 @@
         <v>89</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41691</v>
+        <v>41694</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -2731,21 +2737,21 @@
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E71" t="s">
         <v>4</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41690</v>
+        <v>41691</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
@@ -2754,16 +2760,16 @@
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E72" t="s">
         <v>4</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2771,50 +2777,50 @@
         <v>41690</v>
       </c>
       <c r="B73" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E73" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E74" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41688</v>
+        <v>41689</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
@@ -2823,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E75" t="s">
         <v>4</v>
@@ -2832,12 +2838,12 @@
         <v>10</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41687</v>
+        <v>41688</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -2846,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E76" t="s">
         <v>4</v>
@@ -2855,12 +2861,12 @@
         <v>10</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
@@ -2869,21 +2875,21 @@
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E77" t="s">
         <v>4</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41683</v>
+        <v>41684</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
@@ -2892,21 +2898,21 @@
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E78" t="s">
         <v>4</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41682</v>
+        <v>41683</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
@@ -2915,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E79" t="s">
         <v>4</v>
@@ -2924,12 +2930,12 @@
         <v>10</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
@@ -2938,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E80" t="s">
         <v>4</v>
@@ -2947,12 +2953,12 @@
         <v>10</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
@@ -2961,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E81" t="s">
         <v>4</v>
@@ -2970,12 +2976,12 @@
         <v>10</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
@@ -2984,21 +2990,21 @@
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E82" t="s">
         <v>4</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
@@ -3007,21 +3013,21 @@
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E83" t="s">
         <v>4</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
@@ -3030,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E84" t="s">
         <v>4</v>
@@ -3039,12 +3045,12 @@
         <v>10</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
@@ -3053,7 +3059,7 @@
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E85" t="s">
         <v>4</v>
@@ -3062,7 +3068,7 @@
         <v>10</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3070,50 +3076,50 @@
         <v>41674</v>
       </c>
       <c r="B86" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E86" t="s">
         <v>4</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41673</v>
+        <v>41674</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E87" t="s">
         <v>4</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41670</v>
+        <v>41673</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
@@ -3122,21 +3128,21 @@
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E88" t="s">
         <v>4</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41669</v>
+        <v>41670</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -3145,21 +3151,21 @@
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E89" t="s">
         <v>4</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41668</v>
+        <v>41669</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
@@ -3168,7 +3174,7 @@
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E90" t="s">
         <v>4</v>
@@ -3177,12 +3183,12 @@
         <v>10</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41667</v>
+        <v>41668</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -3191,7 +3197,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
         <v>4</v>
@@ -3200,12 +3206,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41666</v>
+        <v>41667</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
@@ -3214,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E92" t="s">
         <v>4</v>
@@ -3223,7 +3229,7 @@
         <v>10</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3231,50 +3237,50 @@
         <v>41666</v>
       </c>
       <c r="B93" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E93" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41663</v>
+        <v>41666</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E94" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41662</v>
+        <v>41663</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
@@ -3283,21 +3289,21 @@
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E95" t="s">
         <v>4</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41661</v>
+        <v>41662</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
@@ -3315,12 +3321,12 @@
         <v>16</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41660</v>
+        <v>41661</v>
       </c>
       <c r="B97" t="s">
         <v>3</v>
@@ -3338,12 +3344,12 @@
         <v>16</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
@@ -3361,12 +3367,12 @@
         <v>16</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41656</v>
+        <v>41659</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
@@ -3381,15 +3387,15 @@
         <v>4</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
@@ -3404,15 +3410,15 @@
         <v>4</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>
@@ -3421,7 +3427,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E101" t="s">
         <v>4</v>
@@ -3430,12 +3436,12 @@
         <v>16</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
@@ -3444,7 +3450,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E102" t="s">
         <v>4</v>
@@ -3453,12 +3459,12 @@
         <v>16</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B103" t="s">
         <v>3</v>
@@ -3467,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E103" t="s">
         <v>4</v>
@@ -3476,7 +3482,7 @@
         <v>16</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3484,50 +3490,50 @@
         <v>41652</v>
       </c>
       <c r="B104" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E104" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E105" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B106" t="s">
         <v>3</v>
@@ -3542,15 +3548,15 @@
         <v>4</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41647</v>
+        <v>41648</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
@@ -3559,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E107" t="s">
         <v>4</v>
@@ -3568,12 +3574,12 @@
         <v>24</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>41646</v>
+        <v>41647</v>
       </c>
       <c r="B108" t="s">
         <v>3</v>
@@ -3582,7 +3588,7 @@
         <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E108" t="s">
         <v>4</v>
@@ -3591,12 +3597,12 @@
         <v>24</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>41645</v>
+        <v>41646</v>
       </c>
       <c r="B109" t="s">
         <v>3</v>
@@ -3614,12 +3620,12 @@
         <v>24</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>41642</v>
+        <v>41645</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
@@ -3634,37 +3640,57 @@
         <v>4</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>41641</v>
       </c>
-      <c r="B111" t="s">
-        <v>3</v>
-      </c>
-      <c r="C111" t="s">
-        <v>1</v>
-      </c>
-      <c r="D111" s="2" t="s">
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E111" t="s">
-        <v>4</v>
-      </c>
-      <c r="F111" s="3" t="s">
+      <c r="E112" t="s">
+        <v>4</v>
+      </c>
+      <c r="F112" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G111" s="3" t="s">
+      <c r="G112" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
@@ -3674,6 +3700,9 @@
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/backup/cuenta_2200555154.xlsx
+++ b/docs/backup/cuenta_2200555154.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="264">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -777,6 +777,45 @@
   </si>
   <si>
     <t>2423.91</t>
+  </si>
+  <si>
+    <t>0000825412</t>
+  </si>
+  <si>
+    <t>0.40  </t>
+  </si>
+  <si>
+    <t>0005191457</t>
+  </si>
+  <si>
+    <t>300.00  </t>
+  </si>
+  <si>
+    <t>0000825413</t>
+  </si>
+  <si>
+    <t>0000114614</t>
+  </si>
+  <si>
+    <t>0000857909</t>
+  </si>
+  <si>
+    <t>2424.06</t>
+  </si>
+  <si>
+    <t>2444.06</t>
+  </si>
+  <si>
+    <t>2444.21</t>
+  </si>
+  <si>
+    <t>2444.36</t>
+  </si>
+  <si>
+    <t>2144.36</t>
+  </si>
+  <si>
+    <t>2144.76</t>
   </si>
 </sst>
 </file>
@@ -1099,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H1" sqref="H1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1153,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41792</v>
+        <v>41796</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -1123,48 +1162,52 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H2" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-02'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000857911', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.15  , 'mo_saldo' =&gt; 2423.91, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-03 20:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H6" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-06'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825412', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.40  , 'mo_saldo' =&gt; 2144.76, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-07 15:28:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41789</v>
+        <v>41796</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>248</v>
+        <v>262</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-06'), 'mo_concepto' =&gt; 'PAGO/RETIRO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0005191457', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 300.00  , 'mo_saldo' =&gt; 2144.36, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-07 15:28:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41788</v>
+        <v>41795</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1173,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -1182,58 +1225,70 @@
         <v>234</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>245</v>
+        <v>261</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-05'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825412', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.15  , 'mo_saldo' =&gt; 2444.36, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-07 15:28:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41788</v>
+        <v>41794</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="E4" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>244</v>
+        <v>260</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-04'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825413', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.15  , 'mo_saldo' =&gt; 2444.21, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-07 15:28:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41787</v>
+        <v>41794</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>243</v>
+        <v>259</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-04'), 'mo_concepto' =&gt; 'CR AH PROGRAMADO', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000114614', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 2444.06, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-07 15:28:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41786</v>
+        <v>41793</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1242,21 +1297,25 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>242</v>
+        <v>258</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-03'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000857909', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.15  , 'mo_saldo' =&gt; 2424.06, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-07 15:28:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41785</v>
+        <v>41792</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1265,21 +1324,21 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41782</v>
+        <v>41789</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1288,21 +1347,21 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>187</v>
+        <v>246</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41781</v>
+        <v>41788</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1311,21 +1370,21 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41781</v>
+        <v>41788</v>
       </c>
       <c r="B10" t="s">
         <v>191</v>
@@ -1334,21 +1393,21 @@
         <v>192</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="E10" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41780</v>
+        <v>41787</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1357,21 +1416,21 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41779</v>
+        <v>41786</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1380,21 +1439,21 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41778</v>
+        <v>41785</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1403,21 +1462,21 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41775</v>
+        <v>41782</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1426,21 +1485,21 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41774</v>
+        <v>41781</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1449,44 +1508,44 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41773</v>
+        <v>41781</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41772</v>
+        <v>41780</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1495,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -1504,12 +1563,12 @@
         <v>197</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41771</v>
+        <v>41779</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1518,7 +1577,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
@@ -1527,12 +1586,12 @@
         <v>197</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41768</v>
+        <v>41778</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1541,21 +1600,21 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41767</v>
+        <v>41775</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1564,21 +1623,21 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41766</v>
+        <v>41774</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1587,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -1596,35 +1655,35 @@
         <v>197</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41766</v>
+        <v>41773</v>
       </c>
       <c r="B22" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E22" t="s">
-        <v>210</v>
+        <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41765</v>
+        <v>41772</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1633,21 +1692,21 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41764</v>
+        <v>41771</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1656,21 +1715,21 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41761</v>
+        <v>41768</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1679,21 +1738,21 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41759</v>
+        <v>41767</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1702,21 +1761,21 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41758</v>
+        <v>41766</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1725,44 +1784,44 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41757</v>
+        <v>41766</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="E28" t="s">
-        <v>4</v>
+        <v>210</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41754</v>
+        <v>41765</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1771,21 +1830,21 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41753</v>
+        <v>41764</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1794,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -1803,12 +1862,12 @@
         <v>89</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41752</v>
+        <v>41761</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1817,21 +1876,21 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41751</v>
+        <v>41759</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1840,21 +1899,21 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41750</v>
+        <v>41758</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -1863,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
@@ -1872,12 +1931,12 @@
         <v>89</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41746</v>
+        <v>41757</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1886,21 +1945,21 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41745</v>
+        <v>41754</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -1909,21 +1968,21 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41744</v>
+        <v>41753</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -1932,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
@@ -1941,12 +2000,12 @@
         <v>89</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41743</v>
+        <v>41752</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -1955,7 +2014,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
@@ -1964,12 +2023,12 @@
         <v>89</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41740</v>
+        <v>41751</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1978,21 +2037,21 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41739</v>
+        <v>41750</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -2001,7 +2060,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
@@ -2010,12 +2069,12 @@
         <v>89</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41738</v>
+        <v>41746</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -2024,21 +2083,21 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41737</v>
+        <v>41745</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -2047,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
@@ -2056,12 +2115,12 @@
         <v>89</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41736</v>
+        <v>41744</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -2070,7 +2129,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
@@ -2079,12 +2138,12 @@
         <v>89</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41733</v>
+        <v>41743</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -2093,44 +2152,44 @@
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41733</v>
+        <v>41740</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="E44" t="s">
         <v>4</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41732</v>
+        <v>41739</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -2139,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
@@ -2148,12 +2207,12 @@
         <v>89</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41731</v>
+        <v>41738</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -2162,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
@@ -2171,12 +2230,12 @@
         <v>89</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41730</v>
+        <v>41737</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -2185,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
@@ -2194,12 +2253,12 @@
         <v>89</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41729</v>
+        <v>41736</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -2208,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E48" t="s">
         <v>4</v>
@@ -2217,12 +2276,12 @@
         <v>89</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41726</v>
+        <v>41733</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -2231,44 +2290,44 @@
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E49" t="s">
         <v>4</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41724</v>
+        <v>41733</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41723</v>
+        <v>41732</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -2277,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
@@ -2286,12 +2345,12 @@
         <v>89</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41722</v>
+        <v>41731</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -2300,7 +2359,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E52" t="s">
         <v>4</v>
@@ -2309,12 +2368,12 @@
         <v>89</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41719</v>
+        <v>41730</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -2323,21 +2382,21 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E53" t="s">
         <v>4</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41718</v>
+        <v>41729</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -2346,7 +2405,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
@@ -2355,12 +2414,12 @@
         <v>89</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41717</v>
+        <v>41726</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -2369,21 +2428,21 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41716</v>
+        <v>41724</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -2392,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E56" t="s">
         <v>4</v>
@@ -2401,12 +2460,12 @@
         <v>89</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41715</v>
+        <v>41723</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -2415,7 +2474,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E57" t="s">
         <v>4</v>
@@ -2424,12 +2483,12 @@
         <v>89</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41712</v>
+        <v>41722</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -2438,21 +2497,21 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E58" t="s">
         <v>4</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41711</v>
+        <v>41719</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -2461,21 +2520,21 @@
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E59" t="s">
         <v>4</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41710</v>
+        <v>41718</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -2484,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E60" t="s">
         <v>4</v>
@@ -2493,12 +2552,12 @@
         <v>89</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41709</v>
+        <v>41717</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -2507,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E61" t="s">
         <v>4</v>
@@ -2516,12 +2575,12 @@
         <v>89</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41708</v>
+        <v>41716</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -2530,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E62" t="s">
         <v>4</v>
@@ -2539,12 +2598,12 @@
         <v>89</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41705</v>
+        <v>41715</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -2553,21 +2612,21 @@
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="E63" t="s">
         <v>4</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41704</v>
+        <v>41712</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
@@ -2576,21 +2635,21 @@
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E64" t="s">
         <v>4</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41703</v>
+        <v>41711</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
@@ -2599,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E65" t="s">
         <v>4</v>
@@ -2608,35 +2667,35 @@
         <v>89</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41703</v>
+        <v>41710</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="E66" t="s">
         <v>4</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41698</v>
+        <v>41709</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -2645,21 +2704,21 @@
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="E67" t="s">
         <v>4</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41697</v>
+        <v>41708</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -2668,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="E68" t="s">
         <v>4</v>
@@ -2677,12 +2736,12 @@
         <v>89</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41696</v>
+        <v>41705</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -2691,21 +2750,21 @@
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="E69" t="s">
         <v>4</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41695</v>
+        <v>41704</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -2714,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E70" t="s">
         <v>4</v>
@@ -2723,12 +2782,12 @@
         <v>89</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41694</v>
+        <v>41703</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -2737,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E71" t="s">
         <v>4</v>
@@ -2746,35 +2805,35 @@
         <v>89</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41691</v>
+        <v>41703</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E72" t="s">
         <v>4</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41690</v>
+        <v>41698</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
@@ -2783,44 +2842,44 @@
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E73" t="s">
         <v>4</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41690</v>
+        <v>41697</v>
       </c>
       <c r="B74" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E74" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41689</v>
+        <v>41696</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
@@ -2829,21 +2888,21 @@
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E75" t="s">
         <v>4</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41688</v>
+        <v>41695</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -2852,21 +2911,21 @@
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E76" t="s">
         <v>4</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41687</v>
+        <v>41694</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
@@ -2875,21 +2934,21 @@
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E77" t="s">
         <v>4</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41684</v>
+        <v>41691</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
@@ -2898,21 +2957,21 @@
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="E78" t="s">
         <v>4</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41683</v>
+        <v>41690</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
@@ -2921,44 +2980,44 @@
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="E79" t="s">
         <v>4</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41682</v>
+        <v>41690</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E80" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41681</v>
+        <v>41689</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
@@ -2967,7 +3026,7 @@
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E81" t="s">
         <v>4</v>
@@ -2976,12 +3035,12 @@
         <v>10</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41680</v>
+        <v>41688</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
@@ -2990,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E82" t="s">
         <v>4</v>
@@ -2999,12 +3058,12 @@
         <v>10</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41677</v>
+        <v>41687</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
@@ -3013,21 +3072,21 @@
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="E83" t="s">
         <v>4</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41676</v>
+        <v>41684</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
@@ -3036,21 +3095,21 @@
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E84" t="s">
         <v>4</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41675</v>
+        <v>41683</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
@@ -3059,7 +3118,7 @@
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E85" t="s">
         <v>4</v>
@@ -3068,12 +3127,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41674</v>
+        <v>41682</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
@@ -3082,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E86" t="s">
         <v>4</v>
@@ -3091,35 +3150,35 @@
         <v>10</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="B87" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E87" t="s">
         <v>4</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41673</v>
+        <v>41680</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
@@ -3128,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E88" t="s">
         <v>4</v>
@@ -3137,12 +3196,12 @@
         <v>10</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41670</v>
+        <v>41677</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -3151,7 +3210,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="E89" t="s">
         <v>4</v>
@@ -3160,12 +3219,12 @@
         <v>8</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41669</v>
+        <v>41676</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
@@ -3174,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="E90" t="s">
         <v>4</v>
@@ -3183,12 +3242,12 @@
         <v>10</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41668</v>
+        <v>41675</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -3197,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="E91" t="s">
         <v>4</v>
@@ -3206,12 +3265,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41667</v>
+        <v>41674</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
@@ -3220,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="E92" t="s">
         <v>4</v>
@@ -3229,58 +3288,58 @@
         <v>10</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41666</v>
+        <v>41674</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="E93" t="s">
         <v>4</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41666</v>
+        <v>41673</v>
       </c>
       <c r="B94" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="E94" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41663</v>
+        <v>41670</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
@@ -3289,21 +3348,21 @@
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E95" t="s">
         <v>4</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41662</v>
+        <v>41669</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
@@ -3312,21 +3371,21 @@
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E96" t="s">
         <v>4</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41661</v>
+        <v>41668</v>
       </c>
       <c r="B97" t="s">
         <v>3</v>
@@ -3335,21 +3394,21 @@
         <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
         <v>4</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41660</v>
+        <v>41667</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
@@ -3358,21 +3417,21 @@
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E98" t="s">
         <v>4</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41659</v>
+        <v>41666</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
@@ -3381,44 +3440,44 @@
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E99" t="s">
         <v>4</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41656</v>
+        <v>41666</v>
       </c>
       <c r="B100" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E100" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41655</v>
+        <v>41663</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>
@@ -3427,21 +3486,21 @@
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E101" t="s">
         <v>4</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41654</v>
+        <v>41662</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
@@ -3450,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E102" t="s">
         <v>4</v>
@@ -3459,12 +3518,12 @@
         <v>16</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41653</v>
+        <v>41661</v>
       </c>
       <c r="B103" t="s">
         <v>3</v>
@@ -3473,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E103" t="s">
         <v>4</v>
@@ -3482,12 +3541,12 @@
         <v>16</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41652</v>
+        <v>41660</v>
       </c>
       <c r="B104" t="s">
         <v>3</v>
@@ -3496,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E104" t="s">
         <v>4</v>
@@ -3505,35 +3564,35 @@
         <v>16</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41652</v>
+        <v>41659</v>
       </c>
       <c r="B105" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E105" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>41649</v>
+        <v>41656</v>
       </c>
       <c r="B106" t="s">
         <v>3</v>
@@ -3542,21 +3601,21 @@
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E106" t="s">
         <v>4</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41648</v>
+        <v>41655</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
@@ -3565,21 +3624,21 @@
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E107" t="s">
         <v>4</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>41647</v>
+        <v>41654</v>
       </c>
       <c r="B108" t="s">
         <v>3</v>
@@ -3588,21 +3647,21 @@
         <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E108" t="s">
         <v>4</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>41646</v>
+        <v>41653</v>
       </c>
       <c r="B109" t="s">
         <v>3</v>
@@ -3611,21 +3670,21 @@
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E109" t="s">
         <v>4</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>41645</v>
+        <v>41652</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
@@ -3634,75 +3693,213 @@
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E110" t="s">
         <v>4</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>41642</v>
+        <v>41652</v>
       </c>
       <c r="B111" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E111" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112" t="s">
+        <v>4</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E113" t="s">
+        <v>4</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>41647</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E114" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" t="s">
+        <v>4</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" t="s">
+        <v>4</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E117" t="s">
+        <v>4</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
         <v>41641</v>
       </c>
-      <c r="B112" t="s">
-        <v>3</v>
-      </c>
-      <c r="C112" t="s">
-        <v>1</v>
-      </c>
-      <c r="D112" s="2" t="s">
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E112" t="s">
-        <v>4</v>
-      </c>
-      <c r="F112" s="3" t="s">
+      <c r="E118" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G112" s="3" t="s">
+      <c r="G118" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/backup/cuenta_2200555154.xlsx
+++ b/docs/backup/cuenta_2200555154.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="277">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -816,6 +816,45 @@
   </si>
   <si>
     <t>2144.76</t>
+  </si>
+  <si>
+    <t>0000825396</t>
+  </si>
+  <si>
+    <t>0.13  </t>
+  </si>
+  <si>
+    <t>0000825403</t>
+  </si>
+  <si>
+    <t>0000825404</t>
+  </si>
+  <si>
+    <t>0000825406</t>
+  </si>
+  <si>
+    <t>0000825410</t>
+  </si>
+  <si>
+    <t>0000825411</t>
+  </si>
+  <si>
+    <t>2144.89</t>
+  </si>
+  <si>
+    <t>2145.02</t>
+  </si>
+  <si>
+    <t>2145.15</t>
+  </si>
+  <si>
+    <t>2145.28</t>
+  </si>
+  <si>
+    <t>2145.68</t>
+  </si>
+  <si>
+    <t>2145.81</t>
   </si>
 </sst>
 </file>
@@ -1138,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H6"/>
+      <selection activeCell="H6" sqref="H1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,7 +1192,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41796</v>
+        <v>41806</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -1162,52 +1201,52 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="H1" t="str">
         <f t="shared" ref="H1:H6" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-06'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825412', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.40  , 'mo_saldo' =&gt; 2144.76, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-07 15:28:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-16'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825396', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.13  , 'mo_saldo' =&gt; 2145.81, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-17 21:30:6'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41796</v>
+        <v>41803</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="E2" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-06'), 'mo_concepto' =&gt; 'PAGO/RETIRO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0005191457', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 300.00  , 'mo_saldo' =&gt; 2144.36, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-07 15:28:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-13'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825403', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.40  , 'mo_saldo' =&gt; 2145.68, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-17 21:30:6'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41795</v>
+        <v>41802</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1216,25 +1255,25 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-05'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825412', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.15  , 'mo_saldo' =&gt; 2444.36, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-07 15:28:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-12'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825404', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.13  , 'mo_saldo' =&gt; 2145.28, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-17 21:30:6'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41794</v>
+        <v>41801</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1243,52 +1282,52 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-04'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825413', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.15  , 'mo_saldo' =&gt; 2444.21, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-07 15:28:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-11'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825406', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.13  , 'mo_saldo' =&gt; 2145.15, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-17 21:30:6'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41794</v>
+        <v>41800</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>60</v>
+        <v>265</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-04'), 'mo_concepto' =&gt; 'CR AH PROGRAMADO', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000114614', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 2444.06, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-07 15:28:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-10'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825410', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.13  , 'mo_saldo' =&gt; 2145.02, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-17 21:30:6'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41793</v>
+        <v>41799</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1297,25 +1336,25 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-03'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000857909', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.15  , 'mo_saldo' =&gt; 2424.06, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-07 15:28:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-09'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825411', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.13  , 'mo_saldo' =&gt; 2144.89, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-17 21:30:6'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41792</v>
+        <v>41796</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1324,44 +1363,44 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41789</v>
+        <v>41796</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41788</v>
+        <v>41795</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1370,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -1379,58 +1418,58 @@
         <v>234</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41788</v>
+        <v>41794</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="E10" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41787</v>
+        <v>41794</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41786</v>
+        <v>41793</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1439,21 +1478,21 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41785</v>
+        <v>41792</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1462,21 +1501,21 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41782</v>
+        <v>41789</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1485,21 +1524,21 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>187</v>
+        <v>246</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41781</v>
+        <v>41788</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1508,21 +1547,21 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41781</v>
+        <v>41788</v>
       </c>
       <c r="B16" t="s">
         <v>191</v>
@@ -1531,21 +1570,21 @@
         <v>192</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="E16" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41780</v>
+        <v>41787</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1554,21 +1593,21 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41779</v>
+        <v>41786</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1577,21 +1616,21 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41778</v>
+        <v>41785</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1600,21 +1639,21 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41775</v>
+        <v>41782</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1623,21 +1662,21 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41774</v>
+        <v>41781</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1646,44 +1685,44 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41773</v>
+        <v>41781</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41772</v>
+        <v>41780</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1692,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
@@ -1701,12 +1740,12 @@
         <v>197</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41771</v>
+        <v>41779</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1715,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -1724,12 +1763,12 @@
         <v>197</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41768</v>
+        <v>41778</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1738,21 +1777,21 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41767</v>
+        <v>41775</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1761,21 +1800,21 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41766</v>
+        <v>41774</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1784,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
@@ -1793,35 +1832,35 @@
         <v>197</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41766</v>
+        <v>41773</v>
       </c>
       <c r="B28" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E28" t="s">
-        <v>210</v>
+        <v>4</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41765</v>
+        <v>41772</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1830,21 +1869,21 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41764</v>
+        <v>41771</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1853,21 +1892,21 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41761</v>
+        <v>41768</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1876,21 +1915,21 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41759</v>
+        <v>41767</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1899,21 +1938,21 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41758</v>
+        <v>41766</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -1922,44 +1961,44 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41757</v>
+        <v>41766</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C34" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="E34" t="s">
-        <v>4</v>
+        <v>210</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41754</v>
+        <v>41765</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -1968,21 +2007,21 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41753</v>
+        <v>41764</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -1991,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
@@ -2000,12 +2039,12 @@
         <v>89</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41752</v>
+        <v>41761</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -2014,21 +2053,21 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41751</v>
+        <v>41759</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -2037,21 +2076,21 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41750</v>
+        <v>41758</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -2060,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
@@ -2069,12 +2108,12 @@
         <v>89</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41746</v>
+        <v>41757</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -2083,21 +2122,21 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41745</v>
+        <v>41754</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -2106,21 +2145,21 @@
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41744</v>
+        <v>41753</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -2129,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
@@ -2138,12 +2177,12 @@
         <v>89</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41743</v>
+        <v>41752</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -2152,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
@@ -2161,12 +2200,12 @@
         <v>89</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41740</v>
+        <v>41751</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -2175,21 +2214,21 @@
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E44" t="s">
         <v>4</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41739</v>
+        <v>41750</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -2198,7 +2237,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
@@ -2207,12 +2246,12 @@
         <v>89</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41738</v>
+        <v>41746</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -2221,21 +2260,21 @@
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41737</v>
+        <v>41745</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -2244,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
@@ -2253,12 +2292,12 @@
         <v>89</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41736</v>
+        <v>41744</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -2267,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E48" t="s">
         <v>4</v>
@@ -2276,12 +2315,12 @@
         <v>89</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41733</v>
+        <v>41743</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -2290,44 +2329,44 @@
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="E49" t="s">
         <v>4</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41733</v>
+        <v>41740</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41732</v>
+        <v>41739</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -2336,7 +2375,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
@@ -2345,12 +2384,12 @@
         <v>89</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41731</v>
+        <v>41738</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -2359,7 +2398,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E52" t="s">
         <v>4</v>
@@ -2368,12 +2407,12 @@
         <v>89</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41730</v>
+        <v>41737</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -2382,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="E53" t="s">
         <v>4</v>
@@ -2391,12 +2430,12 @@
         <v>89</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41729</v>
+        <v>41736</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -2405,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
@@ -2414,12 +2453,12 @@
         <v>89</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41726</v>
+        <v>41733</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -2428,44 +2467,44 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41724</v>
+        <v>41733</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E56" t="s">
         <v>4</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41723</v>
+        <v>41732</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -2474,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E57" t="s">
         <v>4</v>
@@ -2483,12 +2522,12 @@
         <v>89</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41722</v>
+        <v>41731</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -2497,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E58" t="s">
         <v>4</v>
@@ -2506,12 +2545,12 @@
         <v>89</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41719</v>
+        <v>41730</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -2520,21 +2559,21 @@
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E59" t="s">
         <v>4</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41718</v>
+        <v>41729</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -2543,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E60" t="s">
         <v>4</v>
@@ -2552,12 +2591,12 @@
         <v>89</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41717</v>
+        <v>41726</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -2566,21 +2605,21 @@
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E61" t="s">
         <v>4</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41716</v>
+        <v>41724</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -2589,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E62" t="s">
         <v>4</v>
@@ -2598,12 +2637,12 @@
         <v>89</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41715</v>
+        <v>41723</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -2612,7 +2651,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E63" t="s">
         <v>4</v>
@@ -2621,12 +2660,12 @@
         <v>89</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41712</v>
+        <v>41722</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
@@ -2635,21 +2674,21 @@
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E64" t="s">
         <v>4</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41711</v>
+        <v>41719</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
@@ -2658,21 +2697,21 @@
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E65" t="s">
         <v>4</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41710</v>
+        <v>41718</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -2681,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E66" t="s">
         <v>4</v>
@@ -2690,12 +2729,12 @@
         <v>89</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41709</v>
+        <v>41717</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -2704,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E67" t="s">
         <v>4</v>
@@ -2713,12 +2752,12 @@
         <v>89</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41708</v>
+        <v>41716</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -2727,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E68" t="s">
         <v>4</v>
@@ -2736,12 +2775,12 @@
         <v>89</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41705</v>
+        <v>41715</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -2750,21 +2789,21 @@
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="E69" t="s">
         <v>4</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41704</v>
+        <v>41712</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -2773,21 +2812,21 @@
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E70" t="s">
         <v>4</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41703</v>
+        <v>41711</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -2796,7 +2835,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E71" t="s">
         <v>4</v>
@@ -2805,35 +2844,35 @@
         <v>89</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41703</v>
+        <v>41710</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="E72" t="s">
         <v>4</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41698</v>
+        <v>41709</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
@@ -2842,21 +2881,21 @@
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="E73" t="s">
         <v>4</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41697</v>
+        <v>41708</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -2865,7 +2904,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="E74" t="s">
         <v>4</v>
@@ -2874,12 +2913,12 @@
         <v>89</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41696</v>
+        <v>41705</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
@@ -2888,21 +2927,21 @@
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="E75" t="s">
         <v>4</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41695</v>
+        <v>41704</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -2911,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E76" t="s">
         <v>4</v>
@@ -2920,12 +2959,12 @@
         <v>89</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41694</v>
+        <v>41703</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
@@ -2934,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E77" t="s">
         <v>4</v>
@@ -2943,35 +2982,35 @@
         <v>89</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41691</v>
+        <v>41703</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E78" t="s">
         <v>4</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41690</v>
+        <v>41698</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
@@ -2980,44 +3019,44 @@
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E79" t="s">
         <v>4</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41690</v>
+        <v>41697</v>
       </c>
       <c r="B80" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E80" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41689</v>
+        <v>41696</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
@@ -3026,21 +3065,21 @@
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E81" t="s">
         <v>4</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41688</v>
+        <v>41695</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
@@ -3049,21 +3088,21 @@
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E82" t="s">
         <v>4</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41687</v>
+        <v>41694</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
@@ -3072,21 +3111,21 @@
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E83" t="s">
         <v>4</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41684</v>
+        <v>41691</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
@@ -3095,21 +3134,21 @@
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="E84" t="s">
         <v>4</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41683</v>
+        <v>41690</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
@@ -3118,44 +3157,44 @@
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="E85" t="s">
         <v>4</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41682</v>
+        <v>41690</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E86" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41681</v>
+        <v>41689</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
@@ -3164,7 +3203,7 @@
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E87" t="s">
         <v>4</v>
@@ -3173,12 +3212,12 @@
         <v>10</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41680</v>
+        <v>41688</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
@@ -3187,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E88" t="s">
         <v>4</v>
@@ -3196,12 +3235,12 @@
         <v>10</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41677</v>
+        <v>41687</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -3210,21 +3249,21 @@
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="E89" t="s">
         <v>4</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41676</v>
+        <v>41684</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
@@ -3233,21 +3272,21 @@
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E90" t="s">
         <v>4</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41675</v>
+        <v>41683</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -3256,7 +3295,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E91" t="s">
         <v>4</v>
@@ -3265,12 +3304,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41674</v>
+        <v>41682</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
@@ -3279,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E92" t="s">
         <v>4</v>
@@ -3288,35 +3327,35 @@
         <v>10</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="B93" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E93" t="s">
         <v>4</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41673</v>
+        <v>41680</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
@@ -3325,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E94" t="s">
         <v>4</v>
@@ -3334,12 +3373,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41670</v>
+        <v>41677</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
@@ -3348,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="E95" t="s">
         <v>4</v>
@@ -3357,12 +3396,12 @@
         <v>8</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41669</v>
+        <v>41676</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
@@ -3371,7 +3410,7 @@
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="E96" t="s">
         <v>4</v>
@@ -3380,12 +3419,12 @@
         <v>10</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41668</v>
+        <v>41675</v>
       </c>
       <c r="B97" t="s">
         <v>3</v>
@@ -3394,7 +3433,7 @@
         <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="E97" t="s">
         <v>4</v>
@@ -3403,12 +3442,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41667</v>
+        <v>41674</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
@@ -3417,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="E98" t="s">
         <v>4</v>
@@ -3426,58 +3465,58 @@
         <v>10</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41666</v>
+        <v>41674</v>
       </c>
       <c r="B99" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="E99" t="s">
         <v>4</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41666</v>
+        <v>41673</v>
       </c>
       <c r="B100" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="E100" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41663</v>
+        <v>41670</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>
@@ -3486,21 +3525,21 @@
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E101" t="s">
         <v>4</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41662</v>
+        <v>41669</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
@@ -3509,21 +3548,21 @@
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E102" t="s">
         <v>4</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41661</v>
+        <v>41668</v>
       </c>
       <c r="B103" t="s">
         <v>3</v>
@@ -3532,21 +3571,21 @@
         <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
         <v>4</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41660</v>
+        <v>41667</v>
       </c>
       <c r="B104" t="s">
         <v>3</v>
@@ -3555,21 +3594,21 @@
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E104" t="s">
         <v>4</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41659</v>
+        <v>41666</v>
       </c>
       <c r="B105" t="s">
         <v>3</v>
@@ -3578,44 +3617,44 @@
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E105" t="s">
         <v>4</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>41656</v>
+        <v>41666</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E106" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41655</v>
+        <v>41663</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
@@ -3624,21 +3663,21 @@
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E107" t="s">
         <v>4</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>41654</v>
+        <v>41662</v>
       </c>
       <c r="B108" t="s">
         <v>3</v>
@@ -3647,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E108" t="s">
         <v>4</v>
@@ -3656,12 +3695,12 @@
         <v>16</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>41653</v>
+        <v>41661</v>
       </c>
       <c r="B109" t="s">
         <v>3</v>
@@ -3670,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E109" t="s">
         <v>4</v>
@@ -3679,12 +3718,12 @@
         <v>16</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>41652</v>
+        <v>41660</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
@@ -3693,7 +3732,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E110" t="s">
         <v>4</v>
@@ -3702,35 +3741,35 @@
         <v>16</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>41652</v>
+        <v>41659</v>
       </c>
       <c r="B111" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E111" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>41649</v>
+        <v>41656</v>
       </c>
       <c r="B112" t="s">
         <v>3</v>
@@ -3739,21 +3778,21 @@
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E112" t="s">
         <v>4</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>41648</v>
+        <v>41655</v>
       </c>
       <c r="B113" t="s">
         <v>3</v>
@@ -3762,21 +3801,21 @@
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E113" t="s">
         <v>4</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>41647</v>
+        <v>41654</v>
       </c>
       <c r="B114" t="s">
         <v>3</v>
@@ -3785,21 +3824,21 @@
         <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E114" t="s">
         <v>4</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>41646</v>
+        <v>41653</v>
       </c>
       <c r="B115" t="s">
         <v>3</v>
@@ -3808,21 +3847,21 @@
         <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E115" t="s">
         <v>4</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>41645</v>
+        <v>41652</v>
       </c>
       <c r="B116" t="s">
         <v>3</v>
@@ -3831,75 +3870,213 @@
         <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E116" t="s">
         <v>4</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>41642</v>
+        <v>41652</v>
       </c>
       <c r="B117" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E117" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E118" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E119" t="s">
+        <v>4</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>41647</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E120" t="s">
+        <v>4</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E121" t="s">
+        <v>4</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" t="s">
+        <v>4</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" t="s">
+        <v>4</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
         <v>41641</v>
       </c>
-      <c r="B118" t="s">
-        <v>3</v>
-      </c>
-      <c r="C118" t="s">
-        <v>1</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E118" t="s">
-        <v>4</v>
-      </c>
-      <c r="F118" s="3" t="s">
+      <c r="E124" t="s">
+        <v>4</v>
+      </c>
+      <c r="F124" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G118" s="3" t="s">
+      <c r="G124" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/backup/cuenta_2200555154.xlsx
+++ b/docs/backup/cuenta_2200555154.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="309">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -855,6 +855,102 @@
   </si>
   <si>
     <t>2145.81</t>
+  </si>
+  <si>
+    <t>0005026708</t>
+  </si>
+  <si>
+    <t>475.18  </t>
+  </si>
+  <si>
+    <t>0000825323</t>
+  </si>
+  <si>
+    <t>0.17  </t>
+  </si>
+  <si>
+    <t>0000825325</t>
+  </si>
+  <si>
+    <t>0000825329</t>
+  </si>
+  <si>
+    <t>0000825333</t>
+  </si>
+  <si>
+    <t>0003722472</t>
+  </si>
+  <si>
+    <t>729.66  </t>
+  </si>
+  <si>
+    <t>0000825339</t>
+  </si>
+  <si>
+    <t>0000825340</t>
+  </si>
+  <si>
+    <t>0010083738</t>
+  </si>
+  <si>
+    <t>124.38  </t>
+  </si>
+  <si>
+    <t>0000825384</t>
+  </si>
+  <si>
+    <t>0000825389</t>
+  </si>
+  <si>
+    <t>0000825394</t>
+  </si>
+  <si>
+    <t>0000825395</t>
+  </si>
+  <si>
+    <t>2145.94</t>
+  </si>
+  <si>
+    <t>2146.07</t>
+  </si>
+  <si>
+    <t>2146.20</t>
+  </si>
+  <si>
+    <t>2146.60</t>
+  </si>
+  <si>
+    <t>2022.22</t>
+  </si>
+  <si>
+    <t>2022.35</t>
+  </si>
+  <si>
+    <t>2022.48</t>
+  </si>
+  <si>
+    <t>2022.61</t>
+  </si>
+  <si>
+    <t>2752.27</t>
+  </si>
+  <si>
+    <t>2752.44</t>
+  </si>
+  <si>
+    <t>2752.96</t>
+  </si>
+  <si>
+    <t>2753.13</t>
+  </si>
+  <si>
+    <t>2753.30</t>
+  </si>
+  <si>
+    <t>2753.47</t>
+  </si>
+  <si>
+    <t>3228.65</t>
   </si>
 </sst>
 </file>
@@ -1177,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H1:H6"/>
+      <selection activeCell="H1" sqref="H1:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,34 +1288,34 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41806</v>
+        <v>41823</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H6" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-16'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825396', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.13  , 'mo_saldo' =&gt; 2145.81, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-17 21:30:6'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H15" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-03'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0005026708', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 475.18  , 'mo_saldo' =&gt; 3228.65, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41803</v>
+        <v>41822</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1228,25 +1324,25 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-13'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825403', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.40  , 'mo_saldo' =&gt; 2145.68, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-17 21:30:6'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-02'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825323', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.17  , 'mo_saldo' =&gt; 2753.47, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41802</v>
+        <v>41821</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1255,25 +1351,25 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-12'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825404', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.13  , 'mo_saldo' =&gt; 2145.28, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-17 21:30:6'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-01'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825325', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.17  , 'mo_saldo' =&gt; 2753.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41801</v>
+        <v>41820</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1282,25 +1378,25 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-11'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825406', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.13  , 'mo_saldo' =&gt; 2145.15, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-17 21:30:6'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-30'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825325', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.17  , 'mo_saldo' =&gt; 2753.13, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41800</v>
+        <v>41817</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1309,25 +1405,25 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>265</v>
+        <v>183</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-10'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825410', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.13  , 'mo_saldo' =&gt; 2145.02, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-17 21:30:6'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-27'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825329', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.52  , 'mo_saldo' =&gt; 2752.96, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41799</v>
+        <v>41816</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1336,71 +1432,79 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-09'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825411', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.13  , 'mo_saldo' =&gt; 2144.89, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-17 21:30:6'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-26'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825333', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.17  , 'mo_saldo' =&gt; 2752.44, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41796</v>
+        <v>41816</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>263</v>
+        <v>302</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-26'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0003722472', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 729.66  , 'mo_saldo' =&gt; 2752.27, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41796</v>
+        <v>41815</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="E8" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>262</v>
+        <v>301</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-25'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825339', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.13  , 'mo_saldo' =&gt; 2022.61, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41795</v>
+        <v>41814</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1409,21 +1513,25 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>261</v>
+        <v>300</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-24'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825339', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.13  , 'mo_saldo' =&gt; 2022.48, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41794</v>
+        <v>41813</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1432,44 +1540,52 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>260</v>
+        <v>299</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-23'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825340', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.13  , 'mo_saldo' =&gt; 2022.35, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41794</v>
+        <v>41813</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>60</v>
+        <v>289</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>259</v>
+        <v>298</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-23'), 'mo_concepto' =&gt; 'PAGO/RETIRO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0010083738', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 124.38  , 'mo_saldo' =&gt; 2022.22, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41793</v>
+        <v>41810</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1478,21 +1594,25 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>258</v>
+        <v>297</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-20'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825384', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.40  , 'mo_saldo' =&gt; 2146.60, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41792</v>
+        <v>41809</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1501,21 +1621,25 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>250</v>
+        <v>296</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-19'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825389', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.13  , 'mo_saldo' =&gt; 2146.20, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41789</v>
+        <v>41808</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1524,21 +1648,25 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>246</v>
+        <v>292</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>248</v>
+        <v>295</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-18'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825394', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.13  , 'mo_saldo' =&gt; 2146.07, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41788</v>
+        <v>41807</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1547,44 +1675,48 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>233</v>
+        <v>293</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>245</v>
+        <v>294</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-17'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825395', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.13  , 'mo_saldo' =&gt; 2145.94, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41788</v>
+        <v>41806</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="E16" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41787</v>
+        <v>41803</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1593,21 +1725,21 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41786</v>
+        <v>41802</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1616,21 +1748,21 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>190</v>
+        <v>265</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41785</v>
+        <v>41801</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1639,21 +1771,21 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>190</v>
+        <v>265</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41782</v>
+        <v>41800</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1662,21 +1794,21 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>188</v>
+        <v>265</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1685,67 +1817,67 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>189</v>
+        <v>270</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>190</v>
+        <v>265</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41781</v>
+        <v>41796</v>
       </c>
       <c r="B22" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="E22" t="s">
-        <v>194</v>
+        <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41780</v>
+        <v>41796</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="E23" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41779</v>
+        <v>41795</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1754,21 +1886,21 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41778</v>
+        <v>41794</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1777,44 +1909,44 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>199</v>
+        <v>255</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41775</v>
+        <v>41794</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>201</v>
+        <v>60</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41774</v>
+        <v>41793</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1823,21 +1955,21 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>202</v>
+        <v>257</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41773</v>
+        <v>41792</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1846,21 +1978,21 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41772</v>
+        <v>41789</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1869,21 +2001,21 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41771</v>
+        <v>41788</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1892,44 +2024,44 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41768</v>
+        <v>41788</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41767</v>
+        <v>41787</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1938,21 +2070,21 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41766</v>
+        <v>41786</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -1961,44 +2093,44 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41766</v>
+        <v>41785</v>
       </c>
       <c r="B34" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="E34" t="s">
-        <v>210</v>
+        <v>4</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41765</v>
+        <v>41782</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -2007,21 +2139,21 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41764</v>
+        <v>41781</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -2030,44 +2162,44 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41761</v>
+        <v>41781</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C37" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="E37" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41759</v>
+        <v>41780</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -2076,21 +2208,21 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41758</v>
+        <v>41779</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -2099,21 +2231,21 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>185</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41757</v>
+        <v>41778</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -2122,21 +2254,21 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41754</v>
+        <v>41775</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -2145,21 +2277,21 @@
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>179</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41753</v>
+        <v>41774</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -2168,21 +2300,21 @@
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>178</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41752</v>
+        <v>41773</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -2191,21 +2323,21 @@
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41751</v>
+        <v>41772</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -2214,21 +2346,21 @@
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="E44" t="s">
         <v>4</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41750</v>
+        <v>41771</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -2237,21 +2369,21 @@
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>173</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41746</v>
+        <v>41768</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -2260,21 +2392,21 @@
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41745</v>
+        <v>41767</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -2283,21 +2415,21 @@
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41744</v>
+        <v>41766</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -2306,44 +2438,44 @@
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="E48" t="s">
         <v>4</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41743</v>
+        <v>41766</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C49" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="E49" t="s">
-        <v>4</v>
+        <v>210</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41740</v>
+        <v>41765</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -2352,21 +2484,21 @@
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41739</v>
+        <v>41764</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -2375,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
@@ -2384,12 +2516,12 @@
         <v>89</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41738</v>
+        <v>41761</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -2398,21 +2530,21 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="E52" t="s">
         <v>4</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41737</v>
+        <v>41759</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -2421,21 +2553,21 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="E53" t="s">
         <v>4</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41736</v>
+        <v>41758</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -2444,7 +2576,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
@@ -2453,12 +2585,12 @@
         <v>89</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41733</v>
+        <v>41757</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -2467,44 +2599,44 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41733</v>
+        <v>41754</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="E56" t="s">
         <v>4</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41732</v>
+        <v>41753</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -2513,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="E57" t="s">
         <v>4</v>
@@ -2522,12 +2654,12 @@
         <v>89</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41731</v>
+        <v>41752</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -2536,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="E58" t="s">
         <v>4</v>
@@ -2545,12 +2677,12 @@
         <v>89</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41730</v>
+        <v>41751</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -2559,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="E59" t="s">
         <v>4</v>
@@ -2568,12 +2700,12 @@
         <v>89</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41729</v>
+        <v>41750</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -2582,7 +2714,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="E60" t="s">
         <v>4</v>
@@ -2591,12 +2723,12 @@
         <v>89</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41726</v>
+        <v>41746</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -2605,21 +2737,21 @@
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="E61" t="s">
         <v>4</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41724</v>
+        <v>41745</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -2628,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="E62" t="s">
         <v>4</v>
@@ -2637,12 +2769,12 @@
         <v>89</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41723</v>
+        <v>41744</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -2651,7 +2783,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="E63" t="s">
         <v>4</v>
@@ -2660,12 +2792,12 @@
         <v>89</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41722</v>
+        <v>41743</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
@@ -2674,7 +2806,7 @@
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="E64" t="s">
         <v>4</v>
@@ -2683,12 +2815,12 @@
         <v>89</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41719</v>
+        <v>41740</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
@@ -2697,21 +2829,21 @@
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="E65" t="s">
         <v>4</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41718</v>
+        <v>41739</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -2720,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="E66" t="s">
         <v>4</v>
@@ -2729,12 +2861,12 @@
         <v>89</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41717</v>
+        <v>41738</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -2743,7 +2875,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="E67" t="s">
         <v>4</v>
@@ -2752,12 +2884,12 @@
         <v>89</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41716</v>
+        <v>41737</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -2766,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="E68" t="s">
         <v>4</v>
@@ -2775,12 +2907,12 @@
         <v>89</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41715</v>
+        <v>41736</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -2789,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="E69" t="s">
         <v>4</v>
@@ -2798,12 +2930,12 @@
         <v>89</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41712</v>
+        <v>41733</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -2812,44 +2944,44 @@
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="E70" t="s">
         <v>4</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41711</v>
+        <v>41733</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="E71" t="s">
         <v>4</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41710</v>
+        <v>41732</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
@@ -2858,7 +2990,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="E72" t="s">
         <v>4</v>
@@ -2867,12 +2999,12 @@
         <v>89</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41709</v>
+        <v>41731</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
@@ -2881,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="E73" t="s">
         <v>4</v>
@@ -2890,12 +3022,12 @@
         <v>89</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41708</v>
+        <v>41730</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -2904,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="E74" t="s">
         <v>4</v>
@@ -2913,12 +3045,12 @@
         <v>89</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41705</v>
+        <v>41729</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
@@ -2927,21 +3059,21 @@
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="E75" t="s">
         <v>4</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41704</v>
+        <v>41726</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -2950,21 +3082,21 @@
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="E76" t="s">
         <v>4</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41703</v>
+        <v>41724</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
@@ -2973,7 +3105,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="E77" t="s">
         <v>4</v>
@@ -2982,35 +3114,35 @@
         <v>89</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41703</v>
+        <v>41723</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="E78" t="s">
         <v>4</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41698</v>
+        <v>41722</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
@@ -3019,21 +3151,21 @@
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="E79" t="s">
         <v>4</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41697</v>
+        <v>41719</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
@@ -3042,21 +3174,21 @@
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="E80" t="s">
         <v>4</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41696</v>
+        <v>41718</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
@@ -3065,7 +3197,7 @@
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="E81" t="s">
         <v>4</v>
@@ -3074,12 +3206,12 @@
         <v>89</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41695</v>
+        <v>41717</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
@@ -3088,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="E82" t="s">
         <v>4</v>
@@ -3097,12 +3229,12 @@
         <v>89</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41694</v>
+        <v>41716</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
@@ -3111,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="E83" t="s">
         <v>4</v>
@@ -3120,12 +3252,12 @@
         <v>89</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41691</v>
+        <v>41715</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
@@ -3134,21 +3266,21 @@
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="E84" t="s">
         <v>4</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41690</v>
+        <v>41712</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
@@ -3157,44 +3289,44 @@
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="E85" t="s">
         <v>4</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41690</v>
+        <v>41711</v>
       </c>
       <c r="B86" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="E86" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41689</v>
+        <v>41710</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
@@ -3203,21 +3335,21 @@
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="E87" t="s">
         <v>4</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41688</v>
+        <v>41709</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
@@ -3226,21 +3358,21 @@
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E88" t="s">
         <v>4</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41687</v>
+        <v>41708</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -3249,21 +3381,21 @@
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="E89" t="s">
         <v>4</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41684</v>
+        <v>41705</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
@@ -3272,21 +3404,21 @@
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="E90" t="s">
         <v>4</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41683</v>
+        <v>41704</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -3295,21 +3427,21 @@
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="E91" t="s">
         <v>4</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41682</v>
+        <v>41703</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
@@ -3318,44 +3450,44 @@
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E92" t="s">
         <v>4</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41681</v>
+        <v>41703</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="E93" t="s">
         <v>4</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41680</v>
+        <v>41698</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
@@ -3364,21 +3496,21 @@
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="E94" t="s">
         <v>4</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41677</v>
+        <v>41697</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
@@ -3387,21 +3519,21 @@
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="E95" t="s">
         <v>4</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41676</v>
+        <v>41696</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
@@ -3410,21 +3542,21 @@
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="E96" t="s">
         <v>4</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41675</v>
+        <v>41695</v>
       </c>
       <c r="B97" t="s">
         <v>3</v>
@@ -3433,21 +3565,21 @@
         <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="E97" t="s">
         <v>4</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41674</v>
+        <v>41694</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
@@ -3456,44 +3588,44 @@
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="E98" t="s">
         <v>4</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41674</v>
+        <v>41691</v>
       </c>
       <c r="B99" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="E99" t="s">
         <v>4</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41673</v>
+        <v>41690</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
@@ -3502,44 +3634,44 @@
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="E100" t="s">
         <v>4</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41670</v>
+        <v>41690</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="E101" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41669</v>
+        <v>41689</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
@@ -3548,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="E102" t="s">
         <v>4</v>
@@ -3557,12 +3689,12 @@
         <v>10</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41668</v>
+        <v>41688</v>
       </c>
       <c r="B103" t="s">
         <v>3</v>
@@ -3571,7 +3703,7 @@
         <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="E103" t="s">
         <v>4</v>
@@ -3580,12 +3712,12 @@
         <v>10</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41667</v>
+        <v>41687</v>
       </c>
       <c r="B104" t="s">
         <v>3</v>
@@ -3594,7 +3726,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="E104" t="s">
         <v>4</v>
@@ -3603,12 +3735,12 @@
         <v>10</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41666</v>
+        <v>41684</v>
       </c>
       <c r="B105" t="s">
         <v>3</v>
@@ -3617,44 +3749,44 @@
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="E105" t="s">
         <v>4</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>41666</v>
+        <v>41683</v>
       </c>
       <c r="B106" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="E106" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41663</v>
+        <v>41682</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
@@ -3663,21 +3795,21 @@
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E107" t="s">
         <v>4</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>41662</v>
+        <v>41681</v>
       </c>
       <c r="B108" t="s">
         <v>3</v>
@@ -3686,21 +3818,21 @@
         <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E108" t="s">
         <v>4</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>41661</v>
+        <v>41680</v>
       </c>
       <c r="B109" t="s">
         <v>3</v>
@@ -3709,21 +3841,21 @@
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="E109" t="s">
         <v>4</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>41660</v>
+        <v>41677</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
@@ -3732,21 +3864,21 @@
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E110" t="s">
         <v>4</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>41659</v>
+        <v>41676</v>
       </c>
       <c r="B111" t="s">
         <v>3</v>
@@ -3755,21 +3887,21 @@
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E111" t="s">
         <v>4</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>41656</v>
+        <v>41675</v>
       </c>
       <c r="B112" t="s">
         <v>3</v>
@@ -3778,21 +3910,21 @@
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E112" t="s">
         <v>4</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>41655</v>
+        <v>41674</v>
       </c>
       <c r="B113" t="s">
         <v>3</v>
@@ -3801,44 +3933,44 @@
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E113" t="s">
         <v>4</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>41654</v>
+        <v>41674</v>
       </c>
       <c r="B114" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C114" t="s">
         <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E114" t="s">
         <v>4</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>41653</v>
+        <v>41673</v>
       </c>
       <c r="B115" t="s">
         <v>3</v>
@@ -3847,21 +3979,21 @@
         <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E115" t="s">
         <v>4</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>41652</v>
+        <v>41670</v>
       </c>
       <c r="B116" t="s">
         <v>3</v>
@@ -3870,44 +4002,44 @@
         <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E116" t="s">
         <v>4</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>41652</v>
+        <v>41669</v>
       </c>
       <c r="B117" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E117" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>41649</v>
+        <v>41668</v>
       </c>
       <c r="B118" t="s">
         <v>3</v>
@@ -3916,21 +4048,21 @@
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
         <v>4</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>41648</v>
+        <v>41667</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
@@ -3939,21 +4071,21 @@
         <v>1</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E119" t="s">
         <v>4</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>41647</v>
+        <v>41666</v>
       </c>
       <c r="B120" t="s">
         <v>3</v>
@@ -3962,44 +4094,44 @@
         <v>1</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E120" t="s">
         <v>4</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>41646</v>
+        <v>41666</v>
       </c>
       <c r="B121" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E121" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>41645</v>
+        <v>41663</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
@@ -4008,21 +4140,21 @@
         <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E122" t="s">
         <v>4</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>41642</v>
+        <v>41662</v>
       </c>
       <c r="B123" t="s">
         <v>3</v>
@@ -4031,52 +4163,397 @@
         <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E123" t="s">
         <v>4</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
+        <v>41661</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" t="s">
+        <v>4</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>41660</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" t="s">
+        <v>4</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>41659</v>
+      </c>
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E126" t="s">
+        <v>4</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>41656</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E127" t="s">
+        <v>4</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>41655</v>
+      </c>
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128" t="s">
+        <v>4</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>41654</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129" t="s">
+        <v>4</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130" t="s">
+        <v>4</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131" t="s">
+        <v>4</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132" t="s">
+        <v>2</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E133" t="s">
+        <v>4</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E134" t="s">
+        <v>4</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>41647</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E135" t="s">
+        <v>4</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" t="s">
+        <v>4</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" t="s">
+        <v>4</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" t="s">
+        <v>4</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
         <v>41641</v>
       </c>
-      <c r="B124" t="s">
-        <v>3</v>
-      </c>
-      <c r="C124" t="s">
-        <v>1</v>
-      </c>
-      <c r="D124" s="2" t="s">
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E124" t="s">
-        <v>4</v>
-      </c>
-      <c r="F124" s="3" t="s">
+      <c r="E139" t="s">
+        <v>4</v>
+      </c>
+      <c r="F139" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G124" s="3" t="s">
+      <c r="G139" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/backup/cuenta_2200555154.xlsx
+++ b/docs/backup/cuenta_2200555154.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="328">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -951,6 +951,63 @@
   </si>
   <si>
     <t>3228.65</t>
+  </si>
+  <si>
+    <t>TRASN PAGO DE CREDITO</t>
+  </si>
+  <si>
+    <t>0005294051</t>
+  </si>
+  <si>
+    <t>18.67</t>
+  </si>
+  <si>
+    <t>DEPOSITO</t>
+  </si>
+  <si>
+    <t>0004918416</t>
+  </si>
+  <si>
+    <t>0000825317</t>
+  </si>
+  <si>
+    <t>0.20  </t>
+  </si>
+  <si>
+    <t>0000825321</t>
+  </si>
+  <si>
+    <t>0000825322</t>
+  </si>
+  <si>
+    <t>0.61  </t>
+  </si>
+  <si>
+    <t>0000216567</t>
+  </si>
+  <si>
+    <t>2500.00  </t>
+  </si>
+  <si>
+    <t>5731.19  </t>
+  </si>
+  <si>
+    <t>3228.85</t>
+  </si>
+  <si>
+    <t>3248.85</t>
+  </si>
+  <si>
+    <t>3249.46</t>
+  </si>
+  <si>
+    <t>3249.66</t>
+  </si>
+  <si>
+    <t>3249.86</t>
+  </si>
+  <si>
+    <t>5749.86</t>
   </si>
 </sst>
 </file>
@@ -1273,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H15"/>
+      <selection activeCell="H7" sqref="H1:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,61 +1345,61 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41823</v>
+        <v>41829</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>236</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H15" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-03'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0005026708', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 475.18  , 'mo_saldo' =&gt; 3228.65, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H7" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-09'), 'mo_concepto' =&gt; 'TRASN PAGO DE CREDITO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0005294051', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 5731.19  , 'mo_saldo' =&gt; 18.67, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41822</v>
+        <v>41829</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>312</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-02'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825323', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.17  , 'mo_saldo' =&gt; 2753.47, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-09'), 'mo_concepto' =&gt; 'DEPOSITO', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0004918416', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 2500.00  , 'mo_saldo' =&gt; 5749.86, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1351,25 +1408,25 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-01'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825325', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.17  , 'mo_saldo' =&gt; 2753.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-08'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825317', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.20  , 'mo_saldo' =&gt; 3249.86, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41820</v>
+        <v>41827</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1378,25 +1435,25 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-30'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825325', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.17  , 'mo_saldo' =&gt; 2753.13, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825321', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.20  , 'mo_saldo' =&gt; 3249.66, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41817</v>
+        <v>41824</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1405,106 +1462,102 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>183</v>
+        <v>318</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-27'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825329', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.52  , 'mo_saldo' =&gt; 2752.96, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-04'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825322', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.61  , 'mo_saldo' =&gt; 3249.46, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41816</v>
+        <v>41824</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>280</v>
+        <v>60</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-26'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825333', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.17  , 'mo_saldo' =&gt; 2752.44, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-04'), 'mo_concepto' =&gt; 'CR AH PROGRAMADO', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000216567', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 3248.85, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41816</v>
+        <v>41823</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-26'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0003722472', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 729.66  , 'mo_saldo' =&gt; 2752.27, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-03'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825323', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.20  , 'mo_saldo' =&gt; 3228.85, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41815</v>
+        <v>41823</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-25'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825339', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.13  , 'mo_saldo' =&gt; 2022.61, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41814</v>
+        <v>41822</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1513,25 +1566,21 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-24'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825339', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.13  , 'mo_saldo' =&gt; 2022.48, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41813</v>
+        <v>41821</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1540,52 +1589,44 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-23'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825340', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.13  , 'mo_saldo' =&gt; 2022.35, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41813</v>
+        <v>41820</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E11" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-23'), 'mo_concepto' =&gt; 'PAGO/RETIRO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0010083738', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 124.38  , 'mo_saldo' =&gt; 2022.22, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41810</v>
+        <v>41817</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1594,25 +1635,21 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>252</v>
+        <v>183</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-20'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825384', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.40  , 'mo_saldo' =&gt; 2146.60, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41809</v>
+        <v>41816</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1621,52 +1658,44 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-19'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825389', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.13  , 'mo_saldo' =&gt; 2146.20, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41808</v>
+        <v>41816</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-18'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825394', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.13  , 'mo_saldo' =&gt; 2146.07, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41807</v>
+        <v>41815</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1675,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -1684,16 +1713,12 @@
         <v>265</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-17'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825395', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.13  , 'mo_saldo' =&gt; 2145.94, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41806</v>
+        <v>41814</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1702,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
@@ -1711,12 +1736,12 @@
         <v>265</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41803</v>
+        <v>41813</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1725,44 +1750,44 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41802</v>
+        <v>41813</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41801</v>
+        <v>41810</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1771,21 +1796,21 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41800</v>
+        <v>41809</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1794,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -1803,12 +1828,12 @@
         <v>265</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41799</v>
+        <v>41808</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1817,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -1826,12 +1851,12 @@
         <v>265</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41796</v>
+        <v>41807</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1840,44 +1865,44 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>251</v>
+        <v>293</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41796</v>
+        <v>41806</v>
       </c>
       <c r="B23" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="E23" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41795</v>
+        <v>41803</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1886,21 +1911,21 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41794</v>
+        <v>41802</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1909,44 +1934,44 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41794</v>
+        <v>41801</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>60</v>
+        <v>265</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41793</v>
+        <v>41800</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1955,21 +1980,21 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41792</v>
+        <v>41799</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1978,21 +2003,21 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41789</v>
+        <v>41796</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -2001,67 +2026,67 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41788</v>
+        <v>41796</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C30" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="E30" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41788</v>
+        <v>41795</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="E31" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41787</v>
+        <v>41794</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -2070,44 +2095,44 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41786</v>
+        <v>41794</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41785</v>
+        <v>41793</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -2116,21 +2141,21 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41782</v>
+        <v>41792</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -2139,21 +2164,21 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41781</v>
+        <v>41789</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -2162,67 +2187,67 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41781</v>
+        <v>41788</v>
       </c>
       <c r="B37" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="E37" t="s">
-        <v>194</v>
+        <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41780</v>
+        <v>41788</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C38" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="E38" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41779</v>
+        <v>41787</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -2231,21 +2256,21 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41778</v>
+        <v>41786</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -2254,21 +2279,21 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41775</v>
+        <v>41785</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -2277,21 +2302,21 @@
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41774</v>
+        <v>41782</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -2300,21 +2325,21 @@
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41773</v>
+        <v>41781</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -2323,44 +2348,44 @@
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41772</v>
+        <v>41781</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C44" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E44" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41771</v>
+        <v>41780</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -2369,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
@@ -2378,12 +2403,12 @@
         <v>197</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41768</v>
+        <v>41779</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -2392,21 +2417,21 @@
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41767</v>
+        <v>41778</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -2415,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
@@ -2424,12 +2449,12 @@
         <v>197</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41766</v>
+        <v>41775</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -2438,44 +2463,44 @@
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E48" t="s">
         <v>4</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41766</v>
+        <v>41774</v>
       </c>
       <c r="B49" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E49" t="s">
-        <v>210</v>
+        <v>4</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41765</v>
+        <v>41773</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -2484,21 +2509,21 @@
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41764</v>
+        <v>41772</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -2507,21 +2532,21 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41761</v>
+        <v>41771</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -2530,21 +2555,21 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="E52" t="s">
         <v>4</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41759</v>
+        <v>41768</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -2553,21 +2578,21 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="E53" t="s">
         <v>4</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41758</v>
+        <v>41767</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -2576,21 +2601,21 @@
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41757</v>
+        <v>41766</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -2599,44 +2624,44 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41754</v>
+        <v>41766</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C56" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="E56" t="s">
-        <v>4</v>
+        <v>210</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>143</v>
+        <v>211</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41753</v>
+        <v>41765</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -2645,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="E57" t="s">
         <v>4</v>
@@ -2654,12 +2679,12 @@
         <v>89</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41752</v>
+        <v>41764</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -2668,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="E58" t="s">
         <v>4</v>
@@ -2677,12 +2702,12 @@
         <v>89</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41751</v>
+        <v>41761</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -2691,21 +2716,21 @@
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="E59" t="s">
         <v>4</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41750</v>
+        <v>41759</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -2714,21 +2739,21 @@
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E60" t="s">
         <v>4</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41746</v>
+        <v>41758</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -2737,21 +2762,21 @@
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="E61" t="s">
         <v>4</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41745</v>
+        <v>41757</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -2760,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="E62" t="s">
         <v>4</v>
@@ -2769,12 +2794,12 @@
         <v>89</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41744</v>
+        <v>41754</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -2783,21 +2808,21 @@
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="E63" t="s">
         <v>4</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41743</v>
+        <v>41753</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
@@ -2806,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="E64" t="s">
         <v>4</v>
@@ -2815,12 +2840,12 @@
         <v>89</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41740</v>
+        <v>41752</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
@@ -2829,21 +2854,21 @@
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E65" t="s">
         <v>4</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41739</v>
+        <v>41751</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -2852,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="E66" t="s">
         <v>4</v>
@@ -2861,12 +2886,12 @@
         <v>89</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41738</v>
+        <v>41750</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -2875,7 +2900,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="E67" t="s">
         <v>4</v>
@@ -2884,12 +2909,12 @@
         <v>89</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41737</v>
+        <v>41746</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -2898,21 +2923,21 @@
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E68" t="s">
         <v>4</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41736</v>
+        <v>41745</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -2921,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E69" t="s">
         <v>4</v>
@@ -2930,12 +2955,12 @@
         <v>89</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41733</v>
+        <v>41744</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -2944,44 +2969,44 @@
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="E70" t="s">
         <v>4</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41733</v>
+        <v>41743</v>
       </c>
       <c r="B71" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="E71" t="s">
         <v>4</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41732</v>
+        <v>41740</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
@@ -2990,21 +3015,21 @@
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="E72" t="s">
         <v>4</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41731</v>
+        <v>41739</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
@@ -3013,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E73" t="s">
         <v>4</v>
@@ -3022,12 +3047,12 @@
         <v>89</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41730</v>
+        <v>41738</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -3036,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E74" t="s">
         <v>4</v>
@@ -3045,12 +3070,12 @@
         <v>89</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41729</v>
+        <v>41737</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
@@ -3059,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="E75" t="s">
         <v>4</v>
@@ -3068,12 +3093,12 @@
         <v>89</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41726</v>
+        <v>41736</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -3082,21 +3107,21 @@
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="E76" t="s">
         <v>4</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41724</v>
+        <v>41733</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
@@ -3105,44 +3130,44 @@
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E77" t="s">
         <v>4</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41723</v>
+        <v>41733</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E78" t="s">
         <v>4</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41722</v>
+        <v>41732</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
@@ -3151,7 +3176,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E79" t="s">
         <v>4</v>
@@ -3160,12 +3185,12 @@
         <v>89</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41719</v>
+        <v>41731</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
@@ -3174,21 +3199,21 @@
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="E80" t="s">
         <v>4</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41718</v>
+        <v>41730</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
@@ -3197,7 +3222,7 @@
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E81" t="s">
         <v>4</v>
@@ -3206,12 +3231,12 @@
         <v>89</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41717</v>
+        <v>41729</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
@@ -3220,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="E82" t="s">
         <v>4</v>
@@ -3229,12 +3254,12 @@
         <v>89</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41716</v>
+        <v>41726</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
@@ -3243,21 +3268,21 @@
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="E83" t="s">
         <v>4</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41715</v>
+        <v>41724</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
@@ -3266,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E84" t="s">
         <v>4</v>
@@ -3275,12 +3300,12 @@
         <v>89</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41712</v>
+        <v>41723</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
@@ -3289,21 +3314,21 @@
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E85" t="s">
         <v>4</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41711</v>
+        <v>41722</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
@@ -3312,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="E86" t="s">
         <v>4</v>
@@ -3321,12 +3346,12 @@
         <v>89</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41710</v>
+        <v>41719</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
@@ -3335,21 +3360,21 @@
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E87" t="s">
         <v>4</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41709</v>
+        <v>41718</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
@@ -3358,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E88" t="s">
         <v>4</v>
@@ -3367,12 +3392,12 @@
         <v>89</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41708</v>
+        <v>41717</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -3381,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E89" t="s">
         <v>4</v>
@@ -3390,12 +3415,12 @@
         <v>89</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41705</v>
+        <v>41716</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
@@ -3404,21 +3429,21 @@
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="E90" t="s">
         <v>4</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41704</v>
+        <v>41715</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -3427,7 +3452,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="E91" t="s">
         <v>4</v>
@@ -3436,12 +3461,12 @@
         <v>89</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41703</v>
+        <v>41712</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
@@ -3450,44 +3475,44 @@
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E92" t="s">
         <v>4</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41703</v>
+        <v>41711</v>
       </c>
       <c r="B93" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="E93" t="s">
         <v>4</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41698</v>
+        <v>41710</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
@@ -3496,21 +3521,21 @@
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="E94" t="s">
         <v>4</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41697</v>
+        <v>41709</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
@@ -3519,7 +3544,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="E95" t="s">
         <v>4</v>
@@ -3528,12 +3553,12 @@
         <v>89</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41696</v>
+        <v>41708</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
@@ -3542,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E96" t="s">
         <v>4</v>
@@ -3551,12 +3576,12 @@
         <v>89</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41695</v>
+        <v>41705</v>
       </c>
       <c r="B97" t="s">
         <v>3</v>
@@ -3565,21 +3590,21 @@
         <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E97" t="s">
         <v>4</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41694</v>
+        <v>41704</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
@@ -3588,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E98" t="s">
         <v>4</v>
@@ -3597,12 +3622,12 @@
         <v>89</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41691</v>
+        <v>41703</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
@@ -3611,67 +3636,67 @@
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="E99" t="s">
         <v>4</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41690</v>
+        <v>41703</v>
       </c>
       <c r="B100" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E100" t="s">
         <v>4</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41690</v>
+        <v>41698</v>
       </c>
       <c r="B101" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E101" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41689</v>
+        <v>41697</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
@@ -3680,21 +3705,21 @@
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E102" t="s">
         <v>4</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41688</v>
+        <v>41696</v>
       </c>
       <c r="B103" t="s">
         <v>3</v>
@@ -3703,21 +3728,21 @@
         <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E103" t="s">
         <v>4</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41687</v>
+        <v>41695</v>
       </c>
       <c r="B104" t="s">
         <v>3</v>
@@ -3726,21 +3751,21 @@
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E104" t="s">
         <v>4</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41684</v>
+        <v>41694</v>
       </c>
       <c r="B105" t="s">
         <v>3</v>
@@ -3749,21 +3774,21 @@
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="E105" t="s">
         <v>4</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>41683</v>
+        <v>41691</v>
       </c>
       <c r="B106" t="s">
         <v>3</v>
@@ -3772,21 +3797,21 @@
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="E106" t="s">
         <v>4</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41682</v>
+        <v>41690</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
@@ -3795,44 +3820,44 @@
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="E107" t="s">
         <v>4</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>41681</v>
+        <v>41690</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E108" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>41680</v>
+        <v>41689</v>
       </c>
       <c r="B109" t="s">
         <v>3</v>
@@ -3841,7 +3866,7 @@
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E109" t="s">
         <v>4</v>
@@ -3850,12 +3875,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>41677</v>
+        <v>41688</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
@@ -3864,21 +3889,21 @@
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="E110" t="s">
         <v>4</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>41676</v>
+        <v>41687</v>
       </c>
       <c r="B111" t="s">
         <v>3</v>
@@ -3887,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="E111" t="s">
         <v>4</v>
@@ -3896,12 +3921,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>41675</v>
+        <v>41684</v>
       </c>
       <c r="B112" t="s">
         <v>3</v>
@@ -3910,21 +3935,21 @@
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E112" t="s">
         <v>4</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>41674</v>
+        <v>41683</v>
       </c>
       <c r="B113" t="s">
         <v>3</v>
@@ -3933,7 +3958,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E113" t="s">
         <v>4</v>
@@ -3942,35 +3967,35 @@
         <v>10</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>41674</v>
+        <v>41682</v>
       </c>
       <c r="B114" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C114" t="s">
         <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E114" t="s">
         <v>4</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>41673</v>
+        <v>41681</v>
       </c>
       <c r="B115" t="s">
         <v>3</v>
@@ -3979,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E115" t="s">
         <v>4</v>
@@ -3988,12 +4013,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>41670</v>
+        <v>41680</v>
       </c>
       <c r="B116" t="s">
         <v>3</v>
@@ -4002,21 +4027,21 @@
         <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="E116" t="s">
         <v>4</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>41669</v>
+        <v>41677</v>
       </c>
       <c r="B117" t="s">
         <v>3</v>
@@ -4025,21 +4050,21 @@
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="E117" t="s">
         <v>4</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>41668</v>
+        <v>41676</v>
       </c>
       <c r="B118" t="s">
         <v>3</v>
@@ -4048,7 +4073,7 @@
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E118" t="s">
         <v>4</v>
@@ -4057,12 +4082,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>41667</v>
+        <v>41675</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
@@ -4071,7 +4096,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E119" t="s">
         <v>4</v>
@@ -4080,12 +4105,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>41666</v>
+        <v>41674</v>
       </c>
       <c r="B120" t="s">
         <v>3</v>
@@ -4094,7 +4119,7 @@
         <v>1</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E120" t="s">
         <v>4</v>
@@ -4103,35 +4128,35 @@
         <v>10</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>41666</v>
+        <v>41674</v>
       </c>
       <c r="B121" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E121" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>41663</v>
+        <v>41673</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
@@ -4140,21 +4165,21 @@
         <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E122" t="s">
         <v>4</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>41662</v>
+        <v>41670</v>
       </c>
       <c r="B123" t="s">
         <v>3</v>
@@ -4163,21 +4188,21 @@
         <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E123" t="s">
         <v>4</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>41661</v>
+        <v>41669</v>
       </c>
       <c r="B124" t="s">
         <v>3</v>
@@ -4186,21 +4211,21 @@
         <v>1</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E124" t="s">
         <v>4</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>41660</v>
+        <v>41668</v>
       </c>
       <c r="B125" t="s">
         <v>3</v>
@@ -4209,21 +4234,21 @@
         <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
         <v>4</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>41659</v>
+        <v>41667</v>
       </c>
       <c r="B126" t="s">
         <v>3</v>
@@ -4232,21 +4257,21 @@
         <v>1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E126" t="s">
         <v>4</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>41656</v>
+        <v>41666</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
@@ -4255,44 +4280,44 @@
         <v>1</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E127" t="s">
         <v>4</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>41655</v>
+        <v>41666</v>
       </c>
       <c r="B128" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C128" t="s">
         <v>1</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E128" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>41654</v>
+        <v>41663</v>
       </c>
       <c r="B129" t="s">
         <v>3</v>
@@ -4301,21 +4326,21 @@
         <v>1</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E129" t="s">
         <v>4</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>41653</v>
+        <v>41662</v>
       </c>
       <c r="B130" t="s">
         <v>3</v>
@@ -4324,7 +4349,7 @@
         <v>1</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E130" t="s">
         <v>4</v>
@@ -4333,12 +4358,12 @@
         <v>16</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>41652</v>
+        <v>41661</v>
       </c>
       <c r="B131" t="s">
         <v>3</v>
@@ -4347,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E131" t="s">
         <v>4</v>
@@ -4356,35 +4381,35 @@
         <v>16</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>41652</v>
+        <v>41660</v>
       </c>
       <c r="B132" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C132" t="s">
         <v>1</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E132" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>41649</v>
+        <v>41659</v>
       </c>
       <c r="B133" t="s">
         <v>3</v>
@@ -4393,21 +4418,21 @@
         <v>1</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E133" t="s">
         <v>4</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>41648</v>
+        <v>41656</v>
       </c>
       <c r="B134" t="s">
         <v>3</v>
@@ -4416,21 +4441,21 @@
         <v>1</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E134" t="s">
         <v>4</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>41647</v>
+        <v>41655</v>
       </c>
       <c r="B135" t="s">
         <v>3</v>
@@ -4439,21 +4464,21 @@
         <v>1</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E135" t="s">
         <v>4</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>41646</v>
+        <v>41654</v>
       </c>
       <c r="B136" t="s">
         <v>3</v>
@@ -4462,21 +4487,21 @@
         <v>1</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E136" t="s">
         <v>4</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>41645</v>
+        <v>41653</v>
       </c>
       <c r="B137" t="s">
         <v>3</v>
@@ -4485,21 +4510,21 @@
         <v>1</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E137" t="s">
         <v>4</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>41642</v>
+        <v>41652</v>
       </c>
       <c r="B138" t="s">
         <v>3</v>
@@ -4508,52 +4533,213 @@
         <v>1</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E138" t="s">
         <v>4</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B139" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E139" t="s">
+        <v>2</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E140" t="s">
+        <v>4</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E141" t="s">
+        <v>4</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>41647</v>
+      </c>
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E142" t="s">
+        <v>4</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E143" t="s">
+        <v>4</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E144" t="s">
+        <v>4</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E145" t="s">
+        <v>4</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
         <v>41641</v>
       </c>
-      <c r="B139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C139" t="s">
-        <v>1</v>
-      </c>
-      <c r="D139" s="2" t="s">
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E139" t="s">
-        <v>4</v>
-      </c>
-      <c r="F139" s="3" t="s">
+      <c r="E146" t="s">
+        <v>4</v>
+      </c>
+      <c r="F146" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G139" s="3" t="s">
+      <c r="G146" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/backup/cuenta_2200555154.xlsx
+++ b/docs/backup/cuenta_2200555154.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="331">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -1008,6 +1008,15 @@
   </si>
   <si>
     <t>5749.86</t>
+  </si>
+  <si>
+    <t>0004798332</t>
+  </si>
+  <si>
+    <t>18.67  </t>
+  </si>
+  <si>
+    <t>0.00</t>
   </si>
 </sst>
 </file>
@@ -1330,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H1:H7"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,29 +1354,29 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41829</v>
+        <v>41844</v>
       </c>
       <c r="B1" t="s">
-        <v>309</v>
+        <v>191</v>
       </c>
       <c r="C1" t="s">
         <v>192</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="E1" t="s">
         <v>236</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H7" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-09'), 'mo_concepto' =&gt; 'TRASN PAGO DE CREDITO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0005294051', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 5731.19  , 'mo_saldo' =&gt; 18.67, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H8" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-24'), 'mo_concepto' =&gt; 'PAGO/RETIRO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004798332', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 18.67  , 'mo_saldo' =&gt; 0.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-27 16:49:48'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1375,58 +1384,50 @@
         <v>41829</v>
       </c>
       <c r="B2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E2" t="s">
         <v>236</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-09'), 'mo_concepto' =&gt; 'DEPOSITO', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0004918416', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 2500.00  , 'mo_saldo' =&gt; 5749.86, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>312</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-08'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825317', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.20  , 'mo_saldo' =&gt; 3249.86, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41827</v>
+        <v>41828</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1435,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -1444,16 +1445,12 @@
         <v>315</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-07'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825321', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.20  , 'mo_saldo' =&gt; 3249.66, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41824</v>
+        <v>41827</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1462,20 +1459,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-04'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825322', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.61  , 'mo_saldo' =&gt; 3249.46, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1483,53 +1476,45 @@
         <v>41824</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>60</v>
+        <v>318</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-04'), 'mo_concepto' =&gt; 'CR AH PROGRAMADO', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000216567', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 3248.85, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41823</v>
+        <v>41824</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>315</v>
+        <v>60</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-03'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000825323', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.20  , 'mo_saldo' =&gt; 3228.85, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1537,50 +1522,50 @@
         <v>41823</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41822</v>
+        <v>41823</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41821</v>
+        <v>41822</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1589,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
@@ -1598,12 +1583,12 @@
         <v>280</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41820</v>
+        <v>41821</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1621,12 +1606,12 @@
         <v>280</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41817</v>
+        <v>41820</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1635,21 +1620,21 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>183</v>
+        <v>280</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41816</v>
+        <v>41817</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1658,16 +1643,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>280</v>
+        <v>183</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1675,50 +1660,50 @@
         <v>41816</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E14" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41815</v>
+        <v>41816</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41814</v>
+        <v>41815</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1736,12 +1721,12 @@
         <v>265</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41813</v>
+        <v>41814</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1750,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -1759,7 +1744,7 @@
         <v>265</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1767,50 +1752,50 @@
         <v>41813</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E18" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41810</v>
+        <v>41813</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41809</v>
+        <v>41810</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1819,21 +1804,21 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41808</v>
+        <v>41809</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1842,7 +1827,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -1851,12 +1836,12 @@
         <v>265</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41807</v>
+        <v>41808</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1865,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -1874,12 +1859,12 @@
         <v>265</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41806</v>
+        <v>41807</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1888,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
@@ -1897,12 +1882,12 @@
         <v>265</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41803</v>
+        <v>41806</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1911,21 +1896,21 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1934,21 +1919,21 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41801</v>
+        <v>41802</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1957,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -1966,12 +1951,12 @@
         <v>265</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41800</v>
+        <v>41801</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1980,7 +1965,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
@@ -1989,12 +1974,12 @@
         <v>265</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41799</v>
+        <v>41800</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -2003,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
@@ -2012,12 +1997,12 @@
         <v>265</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41796</v>
+        <v>41799</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -2026,16 +2011,16 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2043,50 +2028,50 @@
         <v>41796</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E30" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41795</v>
+        <v>41796</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41794</v>
+        <v>41795</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -2095,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -2104,7 +2089,7 @@
         <v>234</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2112,50 +2097,50 @@
         <v>41794</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>60</v>
+        <v>234</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41793</v>
+        <v>41794</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41792</v>
+        <v>41793</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -2164,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
@@ -2173,12 +2158,12 @@
         <v>234</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41789</v>
+        <v>41792</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -2187,21 +2172,21 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41788</v>
+        <v>41789</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -2210,16 +2195,16 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2227,50 +2212,50 @@
         <v>41788</v>
       </c>
       <c r="B38" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E38" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41787</v>
+        <v>41788</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C39" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E39" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41786</v>
+        <v>41787</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -2279,7 +2264,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
@@ -2288,12 +2273,12 @@
         <v>190</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41785</v>
+        <v>41786</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -2302,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
@@ -2311,12 +2296,12 @@
         <v>190</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41782</v>
+        <v>41785</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -2325,21 +2310,21 @@
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41781</v>
+        <v>41782</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -2348,16 +2333,16 @@
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2365,50 +2350,50 @@
         <v>41781</v>
       </c>
       <c r="B44" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E44" t="s">
-        <v>194</v>
+        <v>4</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41780</v>
+        <v>41781</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C45" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E45" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41779</v>
+        <v>41780</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -2417,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
@@ -2426,12 +2411,12 @@
         <v>197</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41778</v>
+        <v>41779</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -2440,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
@@ -2449,12 +2434,12 @@
         <v>197</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41775</v>
+        <v>41778</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -2463,21 +2448,21 @@
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E48" t="s">
         <v>4</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41774</v>
+        <v>41775</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -2486,21 +2471,21 @@
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E49" t="s">
         <v>4</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41773</v>
+        <v>41774</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -2509,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
@@ -2518,12 +2503,12 @@
         <v>197</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41772</v>
+        <v>41773</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -2532,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
@@ -2541,12 +2526,12 @@
         <v>197</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -2555,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E52" t="s">
         <v>4</v>
@@ -2564,12 +2549,12 @@
         <v>197</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -2578,21 +2563,21 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E53" t="s">
         <v>4</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -2601,21 +2586,21 @@
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -2624,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
@@ -2633,7 +2618,7 @@
         <v>197</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2641,50 +2626,50 @@
         <v>41766</v>
       </c>
       <c r="B56" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E56" t="s">
-        <v>210</v>
+        <v>4</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41765</v>
+        <v>41766</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C57" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E57" t="s">
-        <v>4</v>
+        <v>210</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41764</v>
+        <v>41765</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -2693,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E58" t="s">
         <v>4</v>
@@ -2702,12 +2687,12 @@
         <v>89</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41761</v>
+        <v>41764</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -2716,21 +2701,21 @@
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E59" t="s">
         <v>4</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41759</v>
+        <v>41761</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -2739,21 +2724,21 @@
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="E60" t="s">
         <v>4</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41758</v>
+        <v>41759</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -2762,21 +2747,21 @@
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E61" t="s">
         <v>4</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41757</v>
+        <v>41758</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -2785,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E62" t="s">
         <v>4</v>
@@ -2794,12 +2779,12 @@
         <v>89</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41754</v>
+        <v>41757</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -2808,21 +2793,21 @@
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E63" t="s">
         <v>4</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41753</v>
+        <v>41754</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
@@ -2831,21 +2816,21 @@
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E64" t="s">
         <v>4</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41752</v>
+        <v>41753</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
@@ -2854,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E65" t="s">
         <v>4</v>
@@ -2863,12 +2848,12 @@
         <v>89</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -2877,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E66" t="s">
         <v>4</v>
@@ -2886,12 +2871,12 @@
         <v>89</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41750</v>
+        <v>41751</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -2900,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E67" t="s">
         <v>4</v>
@@ -2909,12 +2894,12 @@
         <v>89</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41746</v>
+        <v>41750</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -2923,21 +2908,21 @@
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="E68" t="s">
         <v>4</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41745</v>
+        <v>41746</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -2946,21 +2931,21 @@
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E69" t="s">
         <v>4</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41744</v>
+        <v>41745</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -2969,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E70" t="s">
         <v>4</v>
@@ -2978,12 +2963,12 @@
         <v>89</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41743</v>
+        <v>41744</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -2992,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E71" t="s">
         <v>4</v>
@@ -3001,12 +2986,12 @@
         <v>89</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41740</v>
+        <v>41743</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
@@ -3015,21 +3000,21 @@
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E72" t="s">
         <v>4</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41739</v>
+        <v>41740</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
@@ -3038,21 +3023,21 @@
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E73" t="s">
         <v>4</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41738</v>
+        <v>41739</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -3061,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E74" t="s">
         <v>4</v>
@@ -3070,12 +3055,12 @@
         <v>89</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41737</v>
+        <v>41738</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
@@ -3084,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E75" t="s">
         <v>4</v>
@@ -3093,12 +3078,12 @@
         <v>89</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41736</v>
+        <v>41737</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -3107,7 +3092,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E76" t="s">
         <v>4</v>
@@ -3116,12 +3101,12 @@
         <v>89</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41733</v>
+        <v>41736</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
@@ -3130,16 +3115,16 @@
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E77" t="s">
         <v>4</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3147,50 +3132,50 @@
         <v>41733</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E78" t="s">
         <v>4</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41732</v>
+        <v>41733</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E79" t="s">
         <v>4</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41731</v>
+        <v>41732</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
@@ -3199,7 +3184,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E80" t="s">
         <v>4</v>
@@ -3208,12 +3193,12 @@
         <v>89</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41730</v>
+        <v>41731</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
@@ -3222,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E81" t="s">
         <v>4</v>
@@ -3231,12 +3216,12 @@
         <v>89</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
@@ -3245,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E82" t="s">
         <v>4</v>
@@ -3254,12 +3239,12 @@
         <v>89</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41726</v>
+        <v>41729</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
@@ -3268,21 +3253,21 @@
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E83" t="s">
         <v>4</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41724</v>
+        <v>41726</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
@@ -3291,21 +3276,21 @@
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E84" t="s">
         <v>4</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41723</v>
+        <v>41724</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
@@ -3314,7 +3299,7 @@
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E85" t="s">
         <v>4</v>
@@ -3323,12 +3308,12 @@
         <v>89</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41722</v>
+        <v>41723</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
@@ -3337,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E86" t="s">
         <v>4</v>
@@ -3346,12 +3331,12 @@
         <v>89</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41719</v>
+        <v>41722</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
@@ -3360,21 +3345,21 @@
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E87" t="s">
         <v>4</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41718</v>
+        <v>41719</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
@@ -3383,21 +3368,21 @@
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E88" t="s">
         <v>4</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -3406,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E89" t="s">
         <v>4</v>
@@ -3415,12 +3400,12 @@
         <v>89</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
@@ -3429,7 +3414,7 @@
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E90" t="s">
         <v>4</v>
@@ -3438,12 +3423,12 @@
         <v>89</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -3452,7 +3437,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E91" t="s">
         <v>4</v>
@@ -3461,12 +3446,12 @@
         <v>89</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
@@ -3475,21 +3460,21 @@
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E92" t="s">
         <v>4</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41711</v>
+        <v>41712</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
@@ -3498,21 +3483,21 @@
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E93" t="s">
         <v>4</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41710</v>
+        <v>41711</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
@@ -3521,7 +3506,7 @@
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E94" t="s">
         <v>4</v>
@@ -3530,12 +3515,12 @@
         <v>89</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41709</v>
+        <v>41710</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
@@ -3544,7 +3529,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E95" t="s">
         <v>4</v>
@@ -3553,12 +3538,12 @@
         <v>89</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41708</v>
+        <v>41709</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
@@ -3567,7 +3552,7 @@
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E96" t="s">
         <v>4</v>
@@ -3576,12 +3561,12 @@
         <v>89</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41705</v>
+        <v>41708</v>
       </c>
       <c r="B97" t="s">
         <v>3</v>
@@ -3590,21 +3575,21 @@
         <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E97" t="s">
         <v>4</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41704</v>
+        <v>41705</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
@@ -3613,21 +3598,21 @@
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E98" t="s">
         <v>4</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41703</v>
+        <v>41704</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
@@ -3636,7 +3621,7 @@
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E99" t="s">
         <v>4</v>
@@ -3645,7 +3630,7 @@
         <v>89</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3653,50 +3638,50 @@
         <v>41703</v>
       </c>
       <c r="B100" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E100" t="s">
         <v>4</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E101" t="s">
         <v>4</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41697</v>
+        <v>41698</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
@@ -3705,21 +3690,21 @@
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E102" t="s">
         <v>4</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41696</v>
+        <v>41697</v>
       </c>
       <c r="B103" t="s">
         <v>3</v>
@@ -3728,7 +3713,7 @@
         <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E103" t="s">
         <v>4</v>
@@ -3737,12 +3722,12 @@
         <v>89</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41695</v>
+        <v>41696</v>
       </c>
       <c r="B104" t="s">
         <v>3</v>
@@ -3751,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E104" t="s">
         <v>4</v>
@@ -3760,12 +3745,12 @@
         <v>89</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41694</v>
+        <v>41695</v>
       </c>
       <c r="B105" t="s">
         <v>3</v>
@@ -3774,7 +3759,7 @@
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E105" t="s">
         <v>4</v>
@@ -3783,12 +3768,12 @@
         <v>89</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>41691</v>
+        <v>41694</v>
       </c>
       <c r="B106" t="s">
         <v>3</v>
@@ -3797,21 +3782,21 @@
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E106" t="s">
         <v>4</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41690</v>
+        <v>41691</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
@@ -3820,16 +3805,16 @@
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E107" t="s">
         <v>4</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3837,50 +3822,50 @@
         <v>41690</v>
       </c>
       <c r="B108" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E108" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E109" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>41688</v>
+        <v>41689</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
@@ -3889,7 +3874,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E110" t="s">
         <v>4</v>
@@ -3898,12 +3883,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>41687</v>
+        <v>41688</v>
       </c>
       <c r="B111" t="s">
         <v>3</v>
@@ -3912,7 +3897,7 @@
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E111" t="s">
         <v>4</v>
@@ -3921,12 +3906,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B112" t="s">
         <v>3</v>
@@ -3935,21 +3920,21 @@
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E112" t="s">
         <v>4</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>41683</v>
+        <v>41684</v>
       </c>
       <c r="B113" t="s">
         <v>3</v>
@@ -3958,21 +3943,21 @@
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E113" t="s">
         <v>4</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>41682</v>
+        <v>41683</v>
       </c>
       <c r="B114" t="s">
         <v>3</v>
@@ -3981,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E114" t="s">
         <v>4</v>
@@ -3990,12 +3975,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B115" t="s">
         <v>3</v>
@@ -4004,7 +3989,7 @@
         <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E115" t="s">
         <v>4</v>
@@ -4013,12 +3998,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B116" t="s">
         <v>3</v>
@@ -4027,7 +4012,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E116" t="s">
         <v>4</v>
@@ -4036,12 +4021,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B117" t="s">
         <v>3</v>
@@ -4050,21 +4035,21 @@
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E117" t="s">
         <v>4</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B118" t="s">
         <v>3</v>
@@ -4073,21 +4058,21 @@
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E118" t="s">
         <v>4</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
@@ -4096,7 +4081,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E119" t="s">
         <v>4</v>
@@ -4105,12 +4090,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B120" t="s">
         <v>3</v>
@@ -4119,7 +4104,7 @@
         <v>1</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E120" t="s">
         <v>4</v>
@@ -4128,7 +4113,7 @@
         <v>10</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -4136,50 +4121,50 @@
         <v>41674</v>
       </c>
       <c r="B121" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E121" t="s">
         <v>4</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>41673</v>
+        <v>41674</v>
       </c>
       <c r="B122" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E122" t="s">
         <v>4</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>41670</v>
+        <v>41673</v>
       </c>
       <c r="B123" t="s">
         <v>3</v>
@@ -4188,21 +4173,21 @@
         <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E123" t="s">
         <v>4</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>41669</v>
+        <v>41670</v>
       </c>
       <c r="B124" t="s">
         <v>3</v>
@@ -4211,21 +4196,21 @@
         <v>1</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E124" t="s">
         <v>4</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>41668</v>
+        <v>41669</v>
       </c>
       <c r="B125" t="s">
         <v>3</v>
@@ -4234,7 +4219,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E125" t="s">
         <v>4</v>
@@ -4243,12 +4228,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>41667</v>
+        <v>41668</v>
       </c>
       <c r="B126" t="s">
         <v>3</v>
@@ -4257,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
         <v>4</v>
@@ -4266,12 +4251,12 @@
         <v>10</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>41666</v>
+        <v>41667</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
@@ -4280,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E127" t="s">
         <v>4</v>
@@ -4289,7 +4274,7 @@
         <v>10</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -4297,50 +4282,50 @@
         <v>41666</v>
       </c>
       <c r="B128" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C128" t="s">
         <v>1</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E128" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>41663</v>
+        <v>41666</v>
       </c>
       <c r="B129" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E129" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>41662</v>
+        <v>41663</v>
       </c>
       <c r="B130" t="s">
         <v>3</v>
@@ -4349,21 +4334,21 @@
         <v>1</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E130" t="s">
         <v>4</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>41661</v>
+        <v>41662</v>
       </c>
       <c r="B131" t="s">
         <v>3</v>
@@ -4381,12 +4366,12 @@
         <v>16</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>41660</v>
+        <v>41661</v>
       </c>
       <c r="B132" t="s">
         <v>3</v>
@@ -4404,12 +4389,12 @@
         <v>16</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="B133" t="s">
         <v>3</v>
@@ -4427,12 +4412,12 @@
         <v>16</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>41656</v>
+        <v>41659</v>
       </c>
       <c r="B134" t="s">
         <v>3</v>
@@ -4447,15 +4432,15 @@
         <v>4</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="B135" t="s">
         <v>3</v>
@@ -4470,15 +4455,15 @@
         <v>4</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="B136" t="s">
         <v>3</v>
@@ -4487,7 +4472,7 @@
         <v>1</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E136" t="s">
         <v>4</v>
@@ -4496,12 +4481,12 @@
         <v>16</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="B137" t="s">
         <v>3</v>
@@ -4510,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E137" t="s">
         <v>4</v>
@@ -4519,12 +4504,12 @@
         <v>16</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B138" t="s">
         <v>3</v>
@@ -4533,7 +4518,7 @@
         <v>1</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E138" t="s">
         <v>4</v>
@@ -4542,7 +4527,7 @@
         <v>16</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -4550,50 +4535,50 @@
         <v>41652</v>
       </c>
       <c r="B139" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C139" t="s">
         <v>1</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E139" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B140" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C140" t="s">
         <v>1</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E140" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B141" t="s">
         <v>3</v>
@@ -4608,15 +4593,15 @@
         <v>4</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>41647</v>
+        <v>41648</v>
       </c>
       <c r="B142" t="s">
         <v>3</v>
@@ -4625,7 +4610,7 @@
         <v>1</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E142" t="s">
         <v>4</v>
@@ -4634,12 +4619,12 @@
         <v>24</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>41646</v>
+        <v>41647</v>
       </c>
       <c r="B143" t="s">
         <v>3</v>
@@ -4648,7 +4633,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E143" t="s">
         <v>4</v>
@@ -4657,12 +4642,12 @@
         <v>24</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>41645</v>
+        <v>41646</v>
       </c>
       <c r="B144" t="s">
         <v>3</v>
@@ -4680,12 +4665,12 @@
         <v>24</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>41642</v>
+        <v>41645</v>
       </c>
       <c r="B145" t="s">
         <v>3</v>
@@ -4700,37 +4685,57 @@
         <v>4</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" t="s">
+        <v>4</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
         <v>41641</v>
       </c>
-      <c r="B146" t="s">
-        <v>3</v>
-      </c>
-      <c r="C146" t="s">
-        <v>1</v>
-      </c>
-      <c r="D146" s="2" t="s">
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E146" t="s">
-        <v>4</v>
-      </c>
-      <c r="F146" s="3" t="s">
+      <c r="E147" t="s">
+        <v>4</v>
+      </c>
+      <c r="F147" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G146" s="3" t="s">
+      <c r="G147" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
@@ -4740,6 +4745,9 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/backup/cuenta_2200555154.xlsx
+++ b/docs/backup/cuenta_2200555154.xlsx
@@ -1375,8 +1375,8 @@
         <v>330</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H8" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-24'), 'mo_concepto' =&gt; 'PAGO/RETIRO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004798332', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 18.67  , 'mo_saldo' =&gt; 0.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-27 16:49:48'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-24'), 'mo_concepto' =&gt; 'PAGO/RETIRO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004798332', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 18.67  , 'mo_saldo' =&gt; 0.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-03 22:39:17'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">

--- a/docs/backup/cuenta_2200555154.xlsx
+++ b/docs/backup/cuenta_2200555154.xlsx
@@ -1376,7 +1376,7 @@
       </c>
       <c r="H1" t="str">
         <f t="shared" ref="H1" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-24'), 'mo_concepto' =&gt; 'PAGO/RETIRO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004798332', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 18.67  , 'mo_saldo' =&gt; 0.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-03 22:39:17'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-24'), 'mo_concepto' =&gt; 'PAGO/RETIRO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004798332', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 18.67  , 'mo_saldo' =&gt; 0.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-20 20:52:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">

--- a/docs/backup/cuenta_2200555154.xlsx
+++ b/docs/backup/cuenta_2200555154.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="333">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -1017,6 +1017,12 @@
   </si>
   <si>
     <t>0.00</t>
+  </si>
+  <si>
+    <t>0000143471</t>
+  </si>
+  <si>
+    <t>20.00</t>
   </si>
 </sst>
 </file>
@@ -1339,7 +1345,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
@@ -1354,52 +1360,52 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41844</v>
+        <v>41886</v>
       </c>
       <c r="B1" t="s">
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E1" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>329</v>
+        <v>60</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-24'), 'mo_concepto' =&gt; 'PAGO/RETIRO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004798332', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 18.67  , 'mo_saldo' =&gt; 0.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-20 20:52:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-04'), 'mo_concepto' =&gt; 'CR AH PROGRAMADO', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000143471', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 20.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41829</v>
+        <v>41844</v>
       </c>
       <c r="B2" t="s">
-        <v>309</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
         <v>192</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="E2" t="s">
         <v>236</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1407,50 +1413,50 @@
         <v>41829</v>
       </c>
       <c r="B3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E3" t="s">
         <v>236</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>312</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41827</v>
+        <v>41828</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1459,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -1468,12 +1474,12 @@
         <v>315</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41824</v>
+        <v>41827</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1482,16 +1488,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1499,45 +1505,45 @@
         <v>41824</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>60</v>
+        <v>318</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41823</v>
+        <v>41824</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>315</v>
+        <v>60</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1545,50 +1551,50 @@
         <v>41823</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41822</v>
+        <v>41823</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41821</v>
+        <v>41822</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1597,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -1606,12 +1612,12 @@
         <v>280</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41820</v>
+        <v>41821</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1629,12 +1635,12 @@
         <v>280</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41817</v>
+        <v>41820</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1643,21 +1649,21 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>183</v>
+        <v>280</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41816</v>
+        <v>41817</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1666,16 +1672,16 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>280</v>
+        <v>183</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1683,50 +1689,50 @@
         <v>41816</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E15" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41815</v>
+        <v>41816</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41814</v>
+        <v>41815</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1744,12 +1750,12 @@
         <v>265</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41813</v>
+        <v>41814</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1758,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
@@ -1767,7 +1773,7 @@
         <v>265</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1775,50 +1781,50 @@
         <v>41813</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E19" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41810</v>
+        <v>41813</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41809</v>
+        <v>41810</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1827,21 +1833,21 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41808</v>
+        <v>41809</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1850,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -1859,12 +1865,12 @@
         <v>265</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41807</v>
+        <v>41808</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1873,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
@@ -1882,12 +1888,12 @@
         <v>265</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41806</v>
+        <v>41807</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1896,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -1905,12 +1911,12 @@
         <v>265</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41803</v>
+        <v>41806</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1919,21 +1925,21 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1942,21 +1948,21 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41801</v>
+        <v>41802</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1965,7 +1971,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
@@ -1974,12 +1980,12 @@
         <v>265</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41800</v>
+        <v>41801</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1988,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
@@ -1997,12 +2003,12 @@
         <v>265</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41799</v>
+        <v>41800</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -2011,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
@@ -2020,12 +2026,12 @@
         <v>265</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41796</v>
+        <v>41799</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -2034,16 +2040,16 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2051,50 +2057,50 @@
         <v>41796</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E31" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41795</v>
+        <v>41796</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C32" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E32" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41794</v>
+        <v>41795</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -2103,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
@@ -2112,7 +2118,7 @@
         <v>234</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2120,50 +2126,50 @@
         <v>41794</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>60</v>
+        <v>234</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41793</v>
+        <v>41794</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41792</v>
+        <v>41793</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -2172,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
@@ -2181,12 +2187,12 @@
         <v>234</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41789</v>
+        <v>41792</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -2195,21 +2201,21 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41788</v>
+        <v>41789</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -2218,16 +2224,16 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2235,50 +2241,50 @@
         <v>41788</v>
       </c>
       <c r="B39" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E39" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41787</v>
+        <v>41788</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C40" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41786</v>
+        <v>41787</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -2287,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
@@ -2296,12 +2302,12 @@
         <v>190</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41785</v>
+        <v>41786</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -2310,7 +2316,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
@@ -2319,12 +2325,12 @@
         <v>190</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41782</v>
+        <v>41785</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -2333,21 +2339,21 @@
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41781</v>
+        <v>41782</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -2356,16 +2362,16 @@
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E44" t="s">
         <v>4</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2373,50 +2379,50 @@
         <v>41781</v>
       </c>
       <c r="B45" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E45" t="s">
-        <v>194</v>
+        <v>4</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41780</v>
+        <v>41781</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C46" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E46" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41779</v>
+        <v>41780</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -2425,7 +2431,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
@@ -2434,12 +2440,12 @@
         <v>197</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41778</v>
+        <v>41779</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -2448,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E48" t="s">
         <v>4</v>
@@ -2457,12 +2463,12 @@
         <v>197</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41775</v>
+        <v>41778</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -2471,21 +2477,21 @@
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E49" t="s">
         <v>4</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41774</v>
+        <v>41775</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -2494,21 +2500,21 @@
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41773</v>
+        <v>41774</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -2517,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
@@ -2526,12 +2532,12 @@
         <v>197</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41772</v>
+        <v>41773</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -2540,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E52" t="s">
         <v>4</v>
@@ -2549,12 +2555,12 @@
         <v>197</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -2563,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E53" t="s">
         <v>4</v>
@@ -2572,12 +2578,12 @@
         <v>197</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -2586,21 +2592,21 @@
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -2609,21 +2615,21 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -2632,7 +2638,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E56" t="s">
         <v>4</v>
@@ -2641,7 +2647,7 @@
         <v>197</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2649,50 +2655,50 @@
         <v>41766</v>
       </c>
       <c r="B57" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E57" t="s">
-        <v>210</v>
+        <v>4</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41765</v>
+        <v>41766</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C58" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E58" t="s">
-        <v>4</v>
+        <v>210</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41764</v>
+        <v>41765</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -2701,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E59" t="s">
         <v>4</v>
@@ -2710,12 +2716,12 @@
         <v>89</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41761</v>
+        <v>41764</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -2724,21 +2730,21 @@
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E60" t="s">
         <v>4</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41759</v>
+        <v>41761</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -2747,21 +2753,21 @@
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="E61" t="s">
         <v>4</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41758</v>
+        <v>41759</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -2770,21 +2776,21 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E62" t="s">
         <v>4</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41757</v>
+        <v>41758</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -2793,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E63" t="s">
         <v>4</v>
@@ -2802,12 +2808,12 @@
         <v>89</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41754</v>
+        <v>41757</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
@@ -2816,21 +2822,21 @@
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E64" t="s">
         <v>4</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41753</v>
+        <v>41754</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
@@ -2839,21 +2845,21 @@
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E65" t="s">
         <v>4</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41752</v>
+        <v>41753</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -2862,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E66" t="s">
         <v>4</v>
@@ -2871,12 +2877,12 @@
         <v>89</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -2885,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E67" t="s">
         <v>4</v>
@@ -2894,12 +2900,12 @@
         <v>89</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41750</v>
+        <v>41751</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -2908,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E68" t="s">
         <v>4</v>
@@ -2917,12 +2923,12 @@
         <v>89</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41746</v>
+        <v>41750</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -2931,21 +2937,21 @@
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="E69" t="s">
         <v>4</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41745</v>
+        <v>41746</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -2954,21 +2960,21 @@
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E70" t="s">
         <v>4</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41744</v>
+        <v>41745</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -2977,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E71" t="s">
         <v>4</v>
@@ -2986,12 +2992,12 @@
         <v>89</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41743</v>
+        <v>41744</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
@@ -3000,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E72" t="s">
         <v>4</v>
@@ -3009,12 +3015,12 @@
         <v>89</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41740</v>
+        <v>41743</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
@@ -3023,21 +3029,21 @@
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E73" t="s">
         <v>4</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41739</v>
+        <v>41740</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -3046,21 +3052,21 @@
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E74" t="s">
         <v>4</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41738</v>
+        <v>41739</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
@@ -3069,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E75" t="s">
         <v>4</v>
@@ -3078,12 +3084,12 @@
         <v>89</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41737</v>
+        <v>41738</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -3092,7 +3098,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E76" t="s">
         <v>4</v>
@@ -3101,12 +3107,12 @@
         <v>89</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41736</v>
+        <v>41737</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
@@ -3115,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E77" t="s">
         <v>4</v>
@@ -3124,12 +3130,12 @@
         <v>89</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41733</v>
+        <v>41736</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
@@ -3138,16 +3144,16 @@
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E78" t="s">
         <v>4</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3155,50 +3161,50 @@
         <v>41733</v>
       </c>
       <c r="B79" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E79" t="s">
         <v>4</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41732</v>
+        <v>41733</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E80" t="s">
         <v>4</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41731</v>
+        <v>41732</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
@@ -3207,7 +3213,7 @@
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E81" t="s">
         <v>4</v>
@@ -3216,12 +3222,12 @@
         <v>89</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41730</v>
+        <v>41731</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
@@ -3230,7 +3236,7 @@
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E82" t="s">
         <v>4</v>
@@ -3239,12 +3245,12 @@
         <v>89</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
@@ -3253,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E83" t="s">
         <v>4</v>
@@ -3262,12 +3268,12 @@
         <v>89</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41726</v>
+        <v>41729</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
@@ -3276,21 +3282,21 @@
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E84" t="s">
         <v>4</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41724</v>
+        <v>41726</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
@@ -3299,21 +3305,21 @@
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E85" t="s">
         <v>4</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41723</v>
+        <v>41724</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
@@ -3322,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E86" t="s">
         <v>4</v>
@@ -3331,12 +3337,12 @@
         <v>89</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41722</v>
+        <v>41723</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
@@ -3345,7 +3351,7 @@
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E87" t="s">
         <v>4</v>
@@ -3354,12 +3360,12 @@
         <v>89</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41719</v>
+        <v>41722</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
@@ -3368,21 +3374,21 @@
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E88" t="s">
         <v>4</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41718</v>
+        <v>41719</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -3391,21 +3397,21 @@
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E89" t="s">
         <v>4</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
@@ -3414,7 +3420,7 @@
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E90" t="s">
         <v>4</v>
@@ -3423,12 +3429,12 @@
         <v>89</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -3437,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E91" t="s">
         <v>4</v>
@@ -3446,12 +3452,12 @@
         <v>89</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
@@ -3460,7 +3466,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E92" t="s">
         <v>4</v>
@@ -3469,12 +3475,12 @@
         <v>89</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
@@ -3483,21 +3489,21 @@
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E93" t="s">
         <v>4</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41711</v>
+        <v>41712</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
@@ -3506,21 +3512,21 @@
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E94" t="s">
         <v>4</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41710</v>
+        <v>41711</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
@@ -3529,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E95" t="s">
         <v>4</v>
@@ -3538,12 +3544,12 @@
         <v>89</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41709</v>
+        <v>41710</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
@@ -3552,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E96" t="s">
         <v>4</v>
@@ -3561,12 +3567,12 @@
         <v>89</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41708</v>
+        <v>41709</v>
       </c>
       <c r="B97" t="s">
         <v>3</v>
@@ -3575,7 +3581,7 @@
         <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E97" t="s">
         <v>4</v>
@@ -3584,12 +3590,12 @@
         <v>89</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41705</v>
+        <v>41708</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
@@ -3598,21 +3604,21 @@
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E98" t="s">
         <v>4</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41704</v>
+        <v>41705</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
@@ -3621,21 +3627,21 @@
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E99" t="s">
         <v>4</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41703</v>
+        <v>41704</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
@@ -3644,7 +3650,7 @@
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E100" t="s">
         <v>4</v>
@@ -3653,7 +3659,7 @@
         <v>89</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3661,50 +3667,50 @@
         <v>41703</v>
       </c>
       <c r="B101" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E101" t="s">
         <v>4</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B102" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E102" t="s">
         <v>4</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41697</v>
+        <v>41698</v>
       </c>
       <c r="B103" t="s">
         <v>3</v>
@@ -3713,21 +3719,21 @@
         <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E103" t="s">
         <v>4</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41696</v>
+        <v>41697</v>
       </c>
       <c r="B104" t="s">
         <v>3</v>
@@ -3736,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E104" t="s">
         <v>4</v>
@@ -3745,12 +3751,12 @@
         <v>89</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41695</v>
+        <v>41696</v>
       </c>
       <c r="B105" t="s">
         <v>3</v>
@@ -3759,7 +3765,7 @@
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E105" t="s">
         <v>4</v>
@@ -3768,12 +3774,12 @@
         <v>89</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>41694</v>
+        <v>41695</v>
       </c>
       <c r="B106" t="s">
         <v>3</v>
@@ -3782,7 +3788,7 @@
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E106" t="s">
         <v>4</v>
@@ -3791,12 +3797,12 @@
         <v>89</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41691</v>
+        <v>41694</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
@@ -3805,21 +3811,21 @@
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E107" t="s">
         <v>4</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>41690</v>
+        <v>41691</v>
       </c>
       <c r="B108" t="s">
         <v>3</v>
@@ -3828,16 +3834,16 @@
         <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E108" t="s">
         <v>4</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3845,50 +3851,50 @@
         <v>41690</v>
       </c>
       <c r="B109" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E109" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B110" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E110" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>41688</v>
+        <v>41689</v>
       </c>
       <c r="B111" t="s">
         <v>3</v>
@@ -3897,7 +3903,7 @@
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E111" t="s">
         <v>4</v>
@@ -3906,12 +3912,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>41687</v>
+        <v>41688</v>
       </c>
       <c r="B112" t="s">
         <v>3</v>
@@ -3920,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E112" t="s">
         <v>4</v>
@@ -3929,12 +3935,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B113" t="s">
         <v>3</v>
@@ -3943,21 +3949,21 @@
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E113" t="s">
         <v>4</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>41683</v>
+        <v>41684</v>
       </c>
       <c r="B114" t="s">
         <v>3</v>
@@ -3966,21 +3972,21 @@
         <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E114" t="s">
         <v>4</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>41682</v>
+        <v>41683</v>
       </c>
       <c r="B115" t="s">
         <v>3</v>
@@ -3989,7 +3995,7 @@
         <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E115" t="s">
         <v>4</v>
@@ -3998,12 +4004,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B116" t="s">
         <v>3</v>
@@ -4012,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E116" t="s">
         <v>4</v>
@@ -4021,12 +4027,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B117" t="s">
         <v>3</v>
@@ -4035,7 +4041,7 @@
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E117" t="s">
         <v>4</v>
@@ -4044,12 +4050,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B118" t="s">
         <v>3</v>
@@ -4058,21 +4064,21 @@
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E118" t="s">
         <v>4</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
@@ -4081,21 +4087,21 @@
         <v>1</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E119" t="s">
         <v>4</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B120" t="s">
         <v>3</v>
@@ -4104,7 +4110,7 @@
         <v>1</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E120" t="s">
         <v>4</v>
@@ -4113,12 +4119,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B121" t="s">
         <v>3</v>
@@ -4127,7 +4133,7 @@
         <v>1</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E121" t="s">
         <v>4</v>
@@ -4136,7 +4142,7 @@
         <v>10</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -4144,50 +4150,50 @@
         <v>41674</v>
       </c>
       <c r="B122" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E122" t="s">
         <v>4</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>41673</v>
+        <v>41674</v>
       </c>
       <c r="B123" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E123" t="s">
         <v>4</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>41670</v>
+        <v>41673</v>
       </c>
       <c r="B124" t="s">
         <v>3</v>
@@ -4196,21 +4202,21 @@
         <v>1</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E124" t="s">
         <v>4</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>41669</v>
+        <v>41670</v>
       </c>
       <c r="B125" t="s">
         <v>3</v>
@@ -4219,21 +4225,21 @@
         <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E125" t="s">
         <v>4</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>41668</v>
+        <v>41669</v>
       </c>
       <c r="B126" t="s">
         <v>3</v>
@@ -4242,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E126" t="s">
         <v>4</v>
@@ -4251,12 +4257,12 @@
         <v>10</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>41667</v>
+        <v>41668</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
@@ -4265,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
         <v>4</v>
@@ -4274,12 +4280,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>41666</v>
+        <v>41667</v>
       </c>
       <c r="B128" t="s">
         <v>3</v>
@@ -4288,7 +4294,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E128" t="s">
         <v>4</v>
@@ -4297,7 +4303,7 @@
         <v>10</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -4305,50 +4311,50 @@
         <v>41666</v>
       </c>
       <c r="B129" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E129" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>41663</v>
+        <v>41666</v>
       </c>
       <c r="B130" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C130" t="s">
         <v>1</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E130" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>41662</v>
+        <v>41663</v>
       </c>
       <c r="B131" t="s">
         <v>3</v>
@@ -4357,21 +4363,21 @@
         <v>1</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E131" t="s">
         <v>4</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>41661</v>
+        <v>41662</v>
       </c>
       <c r="B132" t="s">
         <v>3</v>
@@ -4389,12 +4395,12 @@
         <v>16</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>41660</v>
+        <v>41661</v>
       </c>
       <c r="B133" t="s">
         <v>3</v>
@@ -4412,12 +4418,12 @@
         <v>16</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="B134" t="s">
         <v>3</v>
@@ -4435,12 +4441,12 @@
         <v>16</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>41656</v>
+        <v>41659</v>
       </c>
       <c r="B135" t="s">
         <v>3</v>
@@ -4455,15 +4461,15 @@
         <v>4</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="B136" t="s">
         <v>3</v>
@@ -4478,15 +4484,15 @@
         <v>4</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="B137" t="s">
         <v>3</v>
@@ -4495,7 +4501,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E137" t="s">
         <v>4</v>
@@ -4504,12 +4510,12 @@
         <v>16</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="B138" t="s">
         <v>3</v>
@@ -4518,7 +4524,7 @@
         <v>1</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E138" t="s">
         <v>4</v>
@@ -4527,12 +4533,12 @@
         <v>16</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B139" t="s">
         <v>3</v>
@@ -4541,7 +4547,7 @@
         <v>1</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E139" t="s">
         <v>4</v>
@@ -4550,7 +4556,7 @@
         <v>16</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -4558,50 +4564,50 @@
         <v>41652</v>
       </c>
       <c r="B140" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C140" t="s">
         <v>1</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E140" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B141" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C141" t="s">
         <v>1</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E141" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B142" t="s">
         <v>3</v>
@@ -4616,15 +4622,15 @@
         <v>4</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>41647</v>
+        <v>41648</v>
       </c>
       <c r="B143" t="s">
         <v>3</v>
@@ -4633,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E143" t="s">
         <v>4</v>
@@ -4642,12 +4648,12 @@
         <v>24</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>41646</v>
+        <v>41647</v>
       </c>
       <c r="B144" t="s">
         <v>3</v>
@@ -4656,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E144" t="s">
         <v>4</v>
@@ -4665,12 +4671,12 @@
         <v>24</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>41645</v>
+        <v>41646</v>
       </c>
       <c r="B145" t="s">
         <v>3</v>
@@ -4688,12 +4694,12 @@
         <v>24</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>41642</v>
+        <v>41645</v>
       </c>
       <c r="B146" t="s">
         <v>3</v>
@@ -4708,37 +4714,57 @@
         <v>4</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E147" t="s">
+        <v>4</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
         <v>41641</v>
       </c>
-      <c r="B147" t="s">
-        <v>3</v>
-      </c>
-      <c r="C147" t="s">
-        <v>1</v>
-      </c>
-      <c r="D147" s="2" t="s">
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E147" t="s">
-        <v>4</v>
-      </c>
-      <c r="F147" s="3" t="s">
+      <c r="E148" t="s">
+        <v>4</v>
+      </c>
+      <c r="F148" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G147" s="3" t="s">
+      <c r="G148" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
@@ -4748,6 +4774,9 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/backup/cuenta_2200555154.xlsx
+++ b/docs/backup/cuenta_2200555154.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="335">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -1023,6 +1023,12 @@
   </si>
   <si>
     <t>20.00</t>
+  </si>
+  <si>
+    <t>0000356350</t>
+  </si>
+  <si>
+    <t>40.00</t>
   </si>
 </sst>
 </file>
@@ -1345,7 +1351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
@@ -1360,7 +1366,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41886</v>
+        <v>41918</v>
       </c>
       <c r="B1" t="s">
         <v>58</v>
@@ -1369,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1378,57 +1384,57 @@
         <v>60</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H1" t="str">
         <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-04'), 'mo_concepto' =&gt; 'CR AH PROGRAMADO', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000143471', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 20.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-06'), 'mo_concepto' =&gt; 'CR AH PROGRAMADO', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000356350', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 40.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41844</v>
+        <v>41886</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E2" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>329</v>
+        <v>60</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41829</v>
+        <v>41844</v>
       </c>
       <c r="B3" t="s">
-        <v>309</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
         <v>192</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="E3" t="s">
         <v>236</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1436,50 +1442,50 @@
         <v>41829</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E4" t="s">
         <v>236</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>312</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41827</v>
+        <v>41828</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1488,7 +1494,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -1497,12 +1503,12 @@
         <v>315</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41824</v>
+        <v>41827</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1511,16 +1517,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1528,45 +1534,45 @@
         <v>41824</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>60</v>
+        <v>318</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41823</v>
+        <v>41824</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>315</v>
+        <v>60</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1574,50 +1580,50 @@
         <v>41823</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41822</v>
+        <v>41823</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41821</v>
+        <v>41822</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1626,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -1635,12 +1641,12 @@
         <v>280</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41820</v>
+        <v>41821</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1658,12 +1664,12 @@
         <v>280</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41817</v>
+        <v>41820</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1672,21 +1678,21 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>183</v>
+        <v>280</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41816</v>
+        <v>41817</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1695,16 +1701,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>280</v>
+        <v>183</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1712,50 +1718,50 @@
         <v>41816</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E16" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41815</v>
+        <v>41816</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41814</v>
+        <v>41815</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1773,12 +1779,12 @@
         <v>265</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41813</v>
+        <v>41814</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1787,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -1796,7 +1802,7 @@
         <v>265</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1804,50 +1810,50 @@
         <v>41813</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E20" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41810</v>
+        <v>41813</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41809</v>
+        <v>41810</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1856,21 +1862,21 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41808</v>
+        <v>41809</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1879,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
@@ -1888,12 +1894,12 @@
         <v>265</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41807</v>
+        <v>41808</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1902,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -1911,12 +1917,12 @@
         <v>265</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41806</v>
+        <v>41807</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1925,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
@@ -1934,12 +1940,12 @@
         <v>265</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41803</v>
+        <v>41806</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1948,21 +1954,21 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1971,21 +1977,21 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41801</v>
+        <v>41802</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1994,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
@@ -2003,12 +2009,12 @@
         <v>265</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41800</v>
+        <v>41801</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -2017,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
@@ -2026,12 +2032,12 @@
         <v>265</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41799</v>
+        <v>41800</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -2040,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -2049,12 +2055,12 @@
         <v>265</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41796</v>
+        <v>41799</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -2063,16 +2069,16 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2080,50 +2086,50 @@
         <v>41796</v>
       </c>
       <c r="B32" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E32" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41795</v>
+        <v>41796</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C33" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E33" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41794</v>
+        <v>41795</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -2132,7 +2138,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
@@ -2141,7 +2147,7 @@
         <v>234</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2149,50 +2155,50 @@
         <v>41794</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>60</v>
+        <v>234</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41793</v>
+        <v>41794</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41792</v>
+        <v>41793</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -2201,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
@@ -2210,12 +2216,12 @@
         <v>234</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41789</v>
+        <v>41792</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -2224,21 +2230,21 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41788</v>
+        <v>41789</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -2247,16 +2253,16 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2264,50 +2270,50 @@
         <v>41788</v>
       </c>
       <c r="B40" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E40" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41787</v>
+        <v>41788</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C41" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E41" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41786</v>
+        <v>41787</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -2316,7 +2322,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
@@ -2325,12 +2331,12 @@
         <v>190</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41785</v>
+        <v>41786</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -2339,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
@@ -2348,12 +2354,12 @@
         <v>190</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41782</v>
+        <v>41785</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -2362,21 +2368,21 @@
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="E44" t="s">
         <v>4</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41781</v>
+        <v>41782</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -2385,16 +2391,16 @@
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2402,50 +2408,50 @@
         <v>41781</v>
       </c>
       <c r="B46" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E46" t="s">
-        <v>194</v>
+        <v>4</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41780</v>
+        <v>41781</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C47" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E47" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41779</v>
+        <v>41780</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -2454,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E48" t="s">
         <v>4</v>
@@ -2463,12 +2469,12 @@
         <v>197</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41778</v>
+        <v>41779</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -2477,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E49" t="s">
         <v>4</v>
@@ -2486,12 +2492,12 @@
         <v>197</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41775</v>
+        <v>41778</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -2500,21 +2506,21 @@
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41774</v>
+        <v>41775</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -2523,21 +2529,21 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41773</v>
+        <v>41774</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -2546,7 +2552,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E52" t="s">
         <v>4</v>
@@ -2555,12 +2561,12 @@
         <v>197</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41772</v>
+        <v>41773</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -2569,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E53" t="s">
         <v>4</v>
@@ -2578,12 +2584,12 @@
         <v>197</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -2592,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
@@ -2601,12 +2607,12 @@
         <v>197</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -2615,21 +2621,21 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -2638,21 +2644,21 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E56" t="s">
         <v>4</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -2661,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E57" t="s">
         <v>4</v>
@@ -2670,7 +2676,7 @@
         <v>197</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2678,50 +2684,50 @@
         <v>41766</v>
       </c>
       <c r="B58" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E58" t="s">
-        <v>210</v>
+        <v>4</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41765</v>
+        <v>41766</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C59" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E59" t="s">
-        <v>4</v>
+        <v>210</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41764</v>
+        <v>41765</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -2730,7 +2736,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E60" t="s">
         <v>4</v>
@@ -2739,12 +2745,12 @@
         <v>89</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41761</v>
+        <v>41764</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -2753,21 +2759,21 @@
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E61" t="s">
         <v>4</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41759</v>
+        <v>41761</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -2776,21 +2782,21 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="E62" t="s">
         <v>4</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41758</v>
+        <v>41759</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -2799,21 +2805,21 @@
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E63" t="s">
         <v>4</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41757</v>
+        <v>41758</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
@@ -2822,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E64" t="s">
         <v>4</v>
@@ -2831,12 +2837,12 @@
         <v>89</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41754</v>
+        <v>41757</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
@@ -2845,21 +2851,21 @@
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E65" t="s">
         <v>4</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41753</v>
+        <v>41754</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -2868,21 +2874,21 @@
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E66" t="s">
         <v>4</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41752</v>
+        <v>41753</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -2891,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E67" t="s">
         <v>4</v>
@@ -2900,12 +2906,12 @@
         <v>89</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -2914,7 +2920,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E68" t="s">
         <v>4</v>
@@ -2923,12 +2929,12 @@
         <v>89</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41750</v>
+        <v>41751</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -2937,7 +2943,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E69" t="s">
         <v>4</v>
@@ -2946,12 +2952,12 @@
         <v>89</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41746</v>
+        <v>41750</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -2960,21 +2966,21 @@
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="E70" t="s">
         <v>4</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41745</v>
+        <v>41746</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -2983,21 +2989,21 @@
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E71" t="s">
         <v>4</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41744</v>
+        <v>41745</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
@@ -3006,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E72" t="s">
         <v>4</v>
@@ -3015,12 +3021,12 @@
         <v>89</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41743</v>
+        <v>41744</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
@@ -3029,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E73" t="s">
         <v>4</v>
@@ -3038,12 +3044,12 @@
         <v>89</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41740</v>
+        <v>41743</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -3052,21 +3058,21 @@
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E74" t="s">
         <v>4</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41739</v>
+        <v>41740</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
@@ -3075,21 +3081,21 @@
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E75" t="s">
         <v>4</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41738</v>
+        <v>41739</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -3098,7 +3104,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E76" t="s">
         <v>4</v>
@@ -3107,12 +3113,12 @@
         <v>89</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41737</v>
+        <v>41738</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
@@ -3121,7 +3127,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E77" t="s">
         <v>4</v>
@@ -3130,12 +3136,12 @@
         <v>89</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41736</v>
+        <v>41737</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
@@ -3144,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E78" t="s">
         <v>4</v>
@@ -3153,12 +3159,12 @@
         <v>89</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41733</v>
+        <v>41736</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
@@ -3167,16 +3173,16 @@
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E79" t="s">
         <v>4</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3184,50 +3190,50 @@
         <v>41733</v>
       </c>
       <c r="B80" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E80" t="s">
         <v>4</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41732</v>
+        <v>41733</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E81" t="s">
         <v>4</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41731</v>
+        <v>41732</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
@@ -3236,7 +3242,7 @@
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E82" t="s">
         <v>4</v>
@@ -3245,12 +3251,12 @@
         <v>89</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41730</v>
+        <v>41731</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
@@ -3259,7 +3265,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E83" t="s">
         <v>4</v>
@@ -3268,12 +3274,12 @@
         <v>89</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
@@ -3282,7 +3288,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E84" t="s">
         <v>4</v>
@@ -3291,12 +3297,12 @@
         <v>89</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41726</v>
+        <v>41729</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
@@ -3305,21 +3311,21 @@
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E85" t="s">
         <v>4</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41724</v>
+        <v>41726</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
@@ -3328,21 +3334,21 @@
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E86" t="s">
         <v>4</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41723</v>
+        <v>41724</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
@@ -3351,7 +3357,7 @@
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E87" t="s">
         <v>4</v>
@@ -3360,12 +3366,12 @@
         <v>89</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41722</v>
+        <v>41723</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
@@ -3374,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E88" t="s">
         <v>4</v>
@@ -3383,12 +3389,12 @@
         <v>89</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41719</v>
+        <v>41722</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -3397,21 +3403,21 @@
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E89" t="s">
         <v>4</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41718</v>
+        <v>41719</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
@@ -3420,21 +3426,21 @@
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E90" t="s">
         <v>4</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -3443,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E91" t="s">
         <v>4</v>
@@ -3452,12 +3458,12 @@
         <v>89</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
@@ -3466,7 +3472,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E92" t="s">
         <v>4</v>
@@ -3475,12 +3481,12 @@
         <v>89</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
@@ -3489,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E93" t="s">
         <v>4</v>
@@ -3498,12 +3504,12 @@
         <v>89</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
@@ -3512,21 +3518,21 @@
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E94" t="s">
         <v>4</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41711</v>
+        <v>41712</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
@@ -3535,21 +3541,21 @@
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E95" t="s">
         <v>4</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41710</v>
+        <v>41711</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
@@ -3558,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E96" t="s">
         <v>4</v>
@@ -3567,12 +3573,12 @@
         <v>89</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41709</v>
+        <v>41710</v>
       </c>
       <c r="B97" t="s">
         <v>3</v>
@@ -3581,7 +3587,7 @@
         <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E97" t="s">
         <v>4</v>
@@ -3590,12 +3596,12 @@
         <v>89</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41708</v>
+        <v>41709</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
@@ -3604,7 +3610,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E98" t="s">
         <v>4</v>
@@ -3613,12 +3619,12 @@
         <v>89</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41705</v>
+        <v>41708</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
@@ -3627,21 +3633,21 @@
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E99" t="s">
         <v>4</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41704</v>
+        <v>41705</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
@@ -3650,21 +3656,21 @@
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E100" t="s">
         <v>4</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41703</v>
+        <v>41704</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>
@@ -3673,7 +3679,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E101" t="s">
         <v>4</v>
@@ -3682,7 +3688,7 @@
         <v>89</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3690,50 +3696,50 @@
         <v>41703</v>
       </c>
       <c r="B102" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E102" t="s">
         <v>4</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E103" t="s">
         <v>4</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41697</v>
+        <v>41698</v>
       </c>
       <c r="B104" t="s">
         <v>3</v>
@@ -3742,21 +3748,21 @@
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E104" t="s">
         <v>4</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41696</v>
+        <v>41697</v>
       </c>
       <c r="B105" t="s">
         <v>3</v>
@@ -3765,7 +3771,7 @@
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E105" t="s">
         <v>4</v>
@@ -3774,12 +3780,12 @@
         <v>89</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>41695</v>
+        <v>41696</v>
       </c>
       <c r="B106" t="s">
         <v>3</v>
@@ -3788,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E106" t="s">
         <v>4</v>
@@ -3797,12 +3803,12 @@
         <v>89</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41694</v>
+        <v>41695</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
@@ -3811,7 +3817,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E107" t="s">
         <v>4</v>
@@ -3820,12 +3826,12 @@
         <v>89</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>41691</v>
+        <v>41694</v>
       </c>
       <c r="B108" t="s">
         <v>3</v>
@@ -3834,21 +3840,21 @@
         <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E108" t="s">
         <v>4</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>41690</v>
+        <v>41691</v>
       </c>
       <c r="B109" t="s">
         <v>3</v>
@@ -3857,16 +3863,16 @@
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E109" t="s">
         <v>4</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3874,50 +3880,50 @@
         <v>41690</v>
       </c>
       <c r="B110" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E110" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B111" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E111" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>41688</v>
+        <v>41689</v>
       </c>
       <c r="B112" t="s">
         <v>3</v>
@@ -3926,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E112" t="s">
         <v>4</v>
@@ -3935,12 +3941,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>41687</v>
+        <v>41688</v>
       </c>
       <c r="B113" t="s">
         <v>3</v>
@@ -3949,7 +3955,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E113" t="s">
         <v>4</v>
@@ -3958,12 +3964,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B114" t="s">
         <v>3</v>
@@ -3972,21 +3978,21 @@
         <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E114" t="s">
         <v>4</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>41683</v>
+        <v>41684</v>
       </c>
       <c r="B115" t="s">
         <v>3</v>
@@ -3995,21 +4001,21 @@
         <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E115" t="s">
         <v>4</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>41682</v>
+        <v>41683</v>
       </c>
       <c r="B116" t="s">
         <v>3</v>
@@ -4018,7 +4024,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E116" t="s">
         <v>4</v>
@@ -4027,12 +4033,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B117" t="s">
         <v>3</v>
@@ -4041,7 +4047,7 @@
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E117" t="s">
         <v>4</v>
@@ -4050,12 +4056,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B118" t="s">
         <v>3</v>
@@ -4064,7 +4070,7 @@
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E118" t="s">
         <v>4</v>
@@ -4073,12 +4079,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
@@ -4087,21 +4093,21 @@
         <v>1</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E119" t="s">
         <v>4</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B120" t="s">
         <v>3</v>
@@ -4110,21 +4116,21 @@
         <v>1</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E120" t="s">
         <v>4</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B121" t="s">
         <v>3</v>
@@ -4133,7 +4139,7 @@
         <v>1</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E121" t="s">
         <v>4</v>
@@ -4142,12 +4148,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
@@ -4156,7 +4162,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E122" t="s">
         <v>4</v>
@@ -4165,7 +4171,7 @@
         <v>10</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -4173,50 +4179,50 @@
         <v>41674</v>
       </c>
       <c r="B123" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E123" t="s">
         <v>4</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>41673</v>
+        <v>41674</v>
       </c>
       <c r="B124" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C124" t="s">
         <v>1</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E124" t="s">
         <v>4</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>41670</v>
+        <v>41673</v>
       </c>
       <c r="B125" t="s">
         <v>3</v>
@@ -4225,21 +4231,21 @@
         <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E125" t="s">
         <v>4</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>41669</v>
+        <v>41670</v>
       </c>
       <c r="B126" t="s">
         <v>3</v>
@@ -4248,21 +4254,21 @@
         <v>1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E126" t="s">
         <v>4</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>41668</v>
+        <v>41669</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
@@ -4271,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E127" t="s">
         <v>4</v>
@@ -4280,12 +4286,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>41667</v>
+        <v>41668</v>
       </c>
       <c r="B128" t="s">
         <v>3</v>
@@ -4294,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
         <v>4</v>
@@ -4303,12 +4309,12 @@
         <v>10</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>41666</v>
+        <v>41667</v>
       </c>
       <c r="B129" t="s">
         <v>3</v>
@@ -4317,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E129" t="s">
         <v>4</v>
@@ -4326,7 +4332,7 @@
         <v>10</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -4334,50 +4340,50 @@
         <v>41666</v>
       </c>
       <c r="B130" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C130" t="s">
         <v>1</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E130" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>41663</v>
+        <v>41666</v>
       </c>
       <c r="B131" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C131" t="s">
         <v>1</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E131" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>41662</v>
+        <v>41663</v>
       </c>
       <c r="B132" t="s">
         <v>3</v>
@@ -4386,21 +4392,21 @@
         <v>1</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E132" t="s">
         <v>4</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>41661</v>
+        <v>41662</v>
       </c>
       <c r="B133" t="s">
         <v>3</v>
@@ -4418,12 +4424,12 @@
         <v>16</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>41660</v>
+        <v>41661</v>
       </c>
       <c r="B134" t="s">
         <v>3</v>
@@ -4441,12 +4447,12 @@
         <v>16</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="B135" t="s">
         <v>3</v>
@@ -4464,12 +4470,12 @@
         <v>16</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>41656</v>
+        <v>41659</v>
       </c>
       <c r="B136" t="s">
         <v>3</v>
@@ -4484,15 +4490,15 @@
         <v>4</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="B137" t="s">
         <v>3</v>
@@ -4507,15 +4513,15 @@
         <v>4</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="B138" t="s">
         <v>3</v>
@@ -4524,7 +4530,7 @@
         <v>1</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E138" t="s">
         <v>4</v>
@@ -4533,12 +4539,12 @@
         <v>16</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="B139" t="s">
         <v>3</v>
@@ -4547,7 +4553,7 @@
         <v>1</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E139" t="s">
         <v>4</v>
@@ -4556,12 +4562,12 @@
         <v>16</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B140" t="s">
         <v>3</v>
@@ -4570,7 +4576,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E140" t="s">
         <v>4</v>
@@ -4579,7 +4585,7 @@
         <v>16</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -4587,50 +4593,50 @@
         <v>41652</v>
       </c>
       <c r="B141" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C141" t="s">
         <v>1</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E141" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B142" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C142" t="s">
         <v>1</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E142" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B143" t="s">
         <v>3</v>
@@ -4645,15 +4651,15 @@
         <v>4</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>41647</v>
+        <v>41648</v>
       </c>
       <c r="B144" t="s">
         <v>3</v>
@@ -4662,7 +4668,7 @@
         <v>1</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E144" t="s">
         <v>4</v>
@@ -4671,12 +4677,12 @@
         <v>24</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>41646</v>
+        <v>41647</v>
       </c>
       <c r="B145" t="s">
         <v>3</v>
@@ -4685,7 +4691,7 @@
         <v>1</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E145" t="s">
         <v>4</v>
@@ -4694,12 +4700,12 @@
         <v>24</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>41645</v>
+        <v>41646</v>
       </c>
       <c r="B146" t="s">
         <v>3</v>
@@ -4717,12 +4723,12 @@
         <v>24</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>41642</v>
+        <v>41645</v>
       </c>
       <c r="B147" t="s">
         <v>3</v>
@@ -4737,37 +4743,57 @@
         <v>4</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" t="s">
+        <v>4</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
         <v>41641</v>
       </c>
-      <c r="B148" t="s">
-        <v>3</v>
-      </c>
-      <c r="C148" t="s">
-        <v>1</v>
-      </c>
-      <c r="D148" s="2" t="s">
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E148" t="s">
-        <v>4</v>
-      </c>
-      <c r="F148" s="3" t="s">
+      <c r="E149" t="s">
+        <v>4</v>
+      </c>
+      <c r="F149" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G148" s="3" t="s">
+      <c r="G149" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
@@ -4777,6 +4803,9 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/backup/cuenta_2200555154.xlsx
+++ b/docs/backup/cuenta_2200555154.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="338">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -1029,6 +1029,15 @@
   </si>
   <si>
     <t>40.00</t>
+  </si>
+  <si>
+    <t>0000752208</t>
+  </si>
+  <si>
+    <t>0.01  </t>
+  </si>
+  <si>
+    <t>40.01</t>
   </si>
 </sst>
 </file>
@@ -1351,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H153"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H2" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,34 +1375,34 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41918</v>
+        <v>41921</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>60</v>
+        <v>336</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H1" t="str">
         <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-06'), 'mo_concepto' =&gt; 'CR AH PROGRAMADO', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000356350', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 40.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-09'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000752208', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.01  , 'mo_saldo' =&gt; 40.01, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41886</v>
+        <v>41918</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -1402,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -1411,53 +1420,57 @@
         <v>60</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
+      </c>
+      <c r="H2" t="str">
+        <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A2,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B2,"', 'mo_tipo' =&gt; '",C2,"', 'mo_documento' =&gt; '",D2,"', 'mo_oficina' =&gt; '",E2,"', 'mo_monto' =&gt; ",F2,", 'mo_saldo' =&gt; ",G2,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-06'), 'mo_concepto' =&gt; 'CR AH PROGRAMADO', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000356350', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 40.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41844</v>
+        <v>41886</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E3" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>329</v>
+        <v>60</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41829</v>
+        <v>41844</v>
       </c>
       <c r="B4" t="s">
-        <v>309</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
         <v>192</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="E4" t="s">
         <v>236</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1465,50 +1478,50 @@
         <v>41829</v>
       </c>
       <c r="B5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E5" t="s">
         <v>236</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>312</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41827</v>
+        <v>41828</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1517,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
@@ -1526,12 +1539,12 @@
         <v>315</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41824</v>
+        <v>41827</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1540,16 +1553,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1557,45 +1570,45 @@
         <v>41824</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>60</v>
+        <v>318</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41823</v>
+        <v>41824</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>315</v>
+        <v>60</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1603,50 +1616,50 @@
         <v>41823</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41822</v>
+        <v>41823</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41821</v>
+        <v>41822</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1655,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
@@ -1664,12 +1677,12 @@
         <v>280</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41820</v>
+        <v>41821</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1687,12 +1700,12 @@
         <v>280</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41817</v>
+        <v>41820</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1701,21 +1714,21 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>183</v>
+        <v>280</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41816</v>
+        <v>41817</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1724,16 +1737,16 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>280</v>
+        <v>183</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1741,50 +1754,50 @@
         <v>41816</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E17" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41815</v>
+        <v>41816</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41814</v>
+        <v>41815</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1802,12 +1815,12 @@
         <v>265</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41813</v>
+        <v>41814</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1816,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -1825,7 +1838,7 @@
         <v>265</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1833,50 +1846,50 @@
         <v>41813</v>
       </c>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E21" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41810</v>
+        <v>41813</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41809</v>
+        <v>41810</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1885,21 +1898,21 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41808</v>
+        <v>41809</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1908,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -1917,12 +1930,12 @@
         <v>265</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41807</v>
+        <v>41808</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1931,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
@@ -1940,12 +1953,12 @@
         <v>265</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41806</v>
+        <v>41807</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1954,7 +1967,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -1963,12 +1976,12 @@
         <v>265</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41803</v>
+        <v>41806</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1977,21 +1990,21 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -2000,21 +2013,21 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41801</v>
+        <v>41802</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -2023,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
@@ -2032,12 +2045,12 @@
         <v>265</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41800</v>
+        <v>41801</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -2046,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -2055,12 +2068,12 @@
         <v>265</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41799</v>
+        <v>41800</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -2069,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -2078,12 +2091,12 @@
         <v>265</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41796</v>
+        <v>41799</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -2092,16 +2105,16 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2109,50 +2122,50 @@
         <v>41796</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E33" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41795</v>
+        <v>41796</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C34" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E34" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41794</v>
+        <v>41795</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -2161,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
@@ -2170,7 +2183,7 @@
         <v>234</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2178,50 +2191,50 @@
         <v>41794</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>60</v>
+        <v>234</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41793</v>
+        <v>41794</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41792</v>
+        <v>41793</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -2230,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
@@ -2239,12 +2252,12 @@
         <v>234</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41789</v>
+        <v>41792</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -2253,21 +2266,21 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41788</v>
+        <v>41789</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -2276,16 +2289,16 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2293,50 +2306,50 @@
         <v>41788</v>
       </c>
       <c r="B41" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E41" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41787</v>
+        <v>41788</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C42" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E42" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41786</v>
+        <v>41787</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -2345,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
@@ -2354,12 +2367,12 @@
         <v>190</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41785</v>
+        <v>41786</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -2368,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E44" t="s">
         <v>4</v>
@@ -2377,12 +2390,12 @@
         <v>190</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41782</v>
+        <v>41785</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -2391,21 +2404,21 @@
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41781</v>
+        <v>41782</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -2414,16 +2427,16 @@
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2431,50 +2444,50 @@
         <v>41781</v>
       </c>
       <c r="B47" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E47" t="s">
-        <v>194</v>
+        <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41780</v>
+        <v>41781</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C48" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E48" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41779</v>
+        <v>41780</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -2483,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E49" t="s">
         <v>4</v>
@@ -2492,12 +2505,12 @@
         <v>197</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41778</v>
+        <v>41779</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -2506,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
@@ -2515,12 +2528,12 @@
         <v>197</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41775</v>
+        <v>41778</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -2529,21 +2542,21 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41774</v>
+        <v>41775</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -2552,21 +2565,21 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E52" t="s">
         <v>4</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41773</v>
+        <v>41774</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -2575,7 +2588,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E53" t="s">
         <v>4</v>
@@ -2584,12 +2597,12 @@
         <v>197</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41772</v>
+        <v>41773</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -2598,7 +2611,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
@@ -2607,12 +2620,12 @@
         <v>197</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -2621,7 +2634,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
@@ -2630,12 +2643,12 @@
         <v>197</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -2644,21 +2657,21 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E56" t="s">
         <v>4</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -2667,21 +2680,21 @@
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E57" t="s">
         <v>4</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -2690,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E58" t="s">
         <v>4</v>
@@ -2699,7 +2712,7 @@
         <v>197</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2707,50 +2720,50 @@
         <v>41766</v>
       </c>
       <c r="B59" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E59" t="s">
-        <v>210</v>
+        <v>4</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41765</v>
+        <v>41766</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C60" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E60" t="s">
-        <v>4</v>
+        <v>210</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41764</v>
+        <v>41765</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -2759,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E61" t="s">
         <v>4</v>
@@ -2768,12 +2781,12 @@
         <v>89</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41761</v>
+        <v>41764</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -2782,21 +2795,21 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E62" t="s">
         <v>4</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41759</v>
+        <v>41761</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -2805,21 +2818,21 @@
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="E63" t="s">
         <v>4</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41758</v>
+        <v>41759</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
@@ -2828,21 +2841,21 @@
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E64" t="s">
         <v>4</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41757</v>
+        <v>41758</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
@@ -2851,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E65" t="s">
         <v>4</v>
@@ -2860,12 +2873,12 @@
         <v>89</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41754</v>
+        <v>41757</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -2874,21 +2887,21 @@
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E66" t="s">
         <v>4</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41753</v>
+        <v>41754</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -2897,21 +2910,21 @@
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E67" t="s">
         <v>4</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41752</v>
+        <v>41753</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -2920,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E68" t="s">
         <v>4</v>
@@ -2929,12 +2942,12 @@
         <v>89</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -2943,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E69" t="s">
         <v>4</v>
@@ -2952,12 +2965,12 @@
         <v>89</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41750</v>
+        <v>41751</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -2966,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E70" t="s">
         <v>4</v>
@@ -2975,12 +2988,12 @@
         <v>89</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41746</v>
+        <v>41750</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -2989,21 +3002,21 @@
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="E71" t="s">
         <v>4</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41745</v>
+        <v>41746</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
@@ -3012,21 +3025,21 @@
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E72" t="s">
         <v>4</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41744</v>
+        <v>41745</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
@@ -3035,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E73" t="s">
         <v>4</v>
@@ -3044,12 +3057,12 @@
         <v>89</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41743</v>
+        <v>41744</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -3058,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E74" t="s">
         <v>4</v>
@@ -3067,12 +3080,12 @@
         <v>89</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41740</v>
+        <v>41743</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
@@ -3081,21 +3094,21 @@
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E75" t="s">
         <v>4</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41739</v>
+        <v>41740</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -3104,21 +3117,21 @@
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E76" t="s">
         <v>4</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41738</v>
+        <v>41739</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
@@ -3127,7 +3140,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E77" t="s">
         <v>4</v>
@@ -3136,12 +3149,12 @@
         <v>89</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41737</v>
+        <v>41738</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
@@ -3150,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E78" t="s">
         <v>4</v>
@@ -3159,12 +3172,12 @@
         <v>89</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41736</v>
+        <v>41737</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
@@ -3173,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E79" t="s">
         <v>4</v>
@@ -3182,12 +3195,12 @@
         <v>89</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41733</v>
+        <v>41736</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
@@ -3196,16 +3209,16 @@
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E80" t="s">
         <v>4</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3213,50 +3226,50 @@
         <v>41733</v>
       </c>
       <c r="B81" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E81" t="s">
         <v>4</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41732</v>
+        <v>41733</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E82" t="s">
         <v>4</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41731</v>
+        <v>41732</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
@@ -3265,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E83" t="s">
         <v>4</v>
@@ -3274,12 +3287,12 @@
         <v>89</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41730</v>
+        <v>41731</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
@@ -3288,7 +3301,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E84" t="s">
         <v>4</v>
@@ -3297,12 +3310,12 @@
         <v>89</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
@@ -3311,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E85" t="s">
         <v>4</v>
@@ -3320,12 +3333,12 @@
         <v>89</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41726</v>
+        <v>41729</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
@@ -3334,21 +3347,21 @@
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E86" t="s">
         <v>4</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41724</v>
+        <v>41726</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
@@ -3357,21 +3370,21 @@
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E87" t="s">
         <v>4</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41723</v>
+        <v>41724</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
@@ -3380,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E88" t="s">
         <v>4</v>
@@ -3389,12 +3402,12 @@
         <v>89</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41722</v>
+        <v>41723</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -3403,7 +3416,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E89" t="s">
         <v>4</v>
@@ -3412,12 +3425,12 @@
         <v>89</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41719</v>
+        <v>41722</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
@@ -3426,21 +3439,21 @@
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E90" t="s">
         <v>4</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41718</v>
+        <v>41719</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -3449,21 +3462,21 @@
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E91" t="s">
         <v>4</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
@@ -3472,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E92" t="s">
         <v>4</v>
@@ -3481,12 +3494,12 @@
         <v>89</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
@@ -3495,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E93" t="s">
         <v>4</v>
@@ -3504,12 +3517,12 @@
         <v>89</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
@@ -3518,7 +3531,7 @@
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E94" t="s">
         <v>4</v>
@@ -3527,12 +3540,12 @@
         <v>89</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
@@ -3541,21 +3554,21 @@
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E95" t="s">
         <v>4</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41711</v>
+        <v>41712</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
@@ -3564,21 +3577,21 @@
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E96" t="s">
         <v>4</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41710</v>
+        <v>41711</v>
       </c>
       <c r="B97" t="s">
         <v>3</v>
@@ -3587,7 +3600,7 @@
         <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E97" t="s">
         <v>4</v>
@@ -3596,12 +3609,12 @@
         <v>89</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41709</v>
+        <v>41710</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
@@ -3610,7 +3623,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E98" t="s">
         <v>4</v>
@@ -3619,12 +3632,12 @@
         <v>89</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41708</v>
+        <v>41709</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
@@ -3633,7 +3646,7 @@
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E99" t="s">
         <v>4</v>
@@ -3642,12 +3655,12 @@
         <v>89</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41705</v>
+        <v>41708</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
@@ -3656,21 +3669,21 @@
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E100" t="s">
         <v>4</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41704</v>
+        <v>41705</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>
@@ -3679,21 +3692,21 @@
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E101" t="s">
         <v>4</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41703</v>
+        <v>41704</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
@@ -3702,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E102" t="s">
         <v>4</v>
@@ -3711,7 +3724,7 @@
         <v>89</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3719,50 +3732,50 @@
         <v>41703</v>
       </c>
       <c r="B103" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E103" t="s">
         <v>4</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E104" t="s">
         <v>4</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41697</v>
+        <v>41698</v>
       </c>
       <c r="B105" t="s">
         <v>3</v>
@@ -3771,21 +3784,21 @@
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E105" t="s">
         <v>4</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>41696</v>
+        <v>41697</v>
       </c>
       <c r="B106" t="s">
         <v>3</v>
@@ -3794,7 +3807,7 @@
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E106" t="s">
         <v>4</v>
@@ -3803,12 +3816,12 @@
         <v>89</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41695</v>
+        <v>41696</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
@@ -3817,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E107" t="s">
         <v>4</v>
@@ -3826,12 +3839,12 @@
         <v>89</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>41694</v>
+        <v>41695</v>
       </c>
       <c r="B108" t="s">
         <v>3</v>
@@ -3840,7 +3853,7 @@
         <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E108" t="s">
         <v>4</v>
@@ -3849,12 +3862,12 @@
         <v>89</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>41691</v>
+        <v>41694</v>
       </c>
       <c r="B109" t="s">
         <v>3</v>
@@ -3863,21 +3876,21 @@
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E109" t="s">
         <v>4</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>41690</v>
+        <v>41691</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
@@ -3886,16 +3899,16 @@
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E110" t="s">
         <v>4</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3903,50 +3916,50 @@
         <v>41690</v>
       </c>
       <c r="B111" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E111" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E112" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>41688</v>
+        <v>41689</v>
       </c>
       <c r="B113" t="s">
         <v>3</v>
@@ -3955,7 +3968,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E113" t="s">
         <v>4</v>
@@ -3964,12 +3977,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>41687</v>
+        <v>41688</v>
       </c>
       <c r="B114" t="s">
         <v>3</v>
@@ -3978,7 +3991,7 @@
         <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E114" t="s">
         <v>4</v>
@@ -3987,12 +4000,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B115" t="s">
         <v>3</v>
@@ -4001,21 +4014,21 @@
         <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E115" t="s">
         <v>4</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>41683</v>
+        <v>41684</v>
       </c>
       <c r="B116" t="s">
         <v>3</v>
@@ -4024,21 +4037,21 @@
         <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E116" t="s">
         <v>4</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>41682</v>
+        <v>41683</v>
       </c>
       <c r="B117" t="s">
         <v>3</v>
@@ -4047,7 +4060,7 @@
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E117" t="s">
         <v>4</v>
@@ -4056,12 +4069,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B118" t="s">
         <v>3</v>
@@ -4070,7 +4083,7 @@
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E118" t="s">
         <v>4</v>
@@ -4079,12 +4092,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
@@ -4093,7 +4106,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E119" t="s">
         <v>4</v>
@@ -4102,12 +4115,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B120" t="s">
         <v>3</v>
@@ -4116,21 +4129,21 @@
         <v>1</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E120" t="s">
         <v>4</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B121" t="s">
         <v>3</v>
@@ -4139,21 +4152,21 @@
         <v>1</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E121" t="s">
         <v>4</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
@@ -4162,7 +4175,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E122" t="s">
         <v>4</v>
@@ -4171,12 +4184,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B123" t="s">
         <v>3</v>
@@ -4185,7 +4198,7 @@
         <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E123" t="s">
         <v>4</v>
@@ -4194,7 +4207,7 @@
         <v>10</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -4202,50 +4215,50 @@
         <v>41674</v>
       </c>
       <c r="B124" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C124" t="s">
         <v>1</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E124" t="s">
         <v>4</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>41673</v>
+        <v>41674</v>
       </c>
       <c r="B125" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E125" t="s">
         <v>4</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>41670</v>
+        <v>41673</v>
       </c>
       <c r="B126" t="s">
         <v>3</v>
@@ -4254,21 +4267,21 @@
         <v>1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E126" t="s">
         <v>4</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>41669</v>
+        <v>41670</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
@@ -4277,21 +4290,21 @@
         <v>1</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E127" t="s">
         <v>4</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>41668</v>
+        <v>41669</v>
       </c>
       <c r="B128" t="s">
         <v>3</v>
@@ -4300,7 +4313,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E128" t="s">
         <v>4</v>
@@ -4309,12 +4322,12 @@
         <v>10</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>41667</v>
+        <v>41668</v>
       </c>
       <c r="B129" t="s">
         <v>3</v>
@@ -4323,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
         <v>4</v>
@@ -4332,12 +4345,12 @@
         <v>10</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>41666</v>
+        <v>41667</v>
       </c>
       <c r="B130" t="s">
         <v>3</v>
@@ -4346,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E130" t="s">
         <v>4</v>
@@ -4355,7 +4368,7 @@
         <v>10</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -4363,50 +4376,50 @@
         <v>41666</v>
       </c>
       <c r="B131" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C131" t="s">
         <v>1</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E131" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>41663</v>
+        <v>41666</v>
       </c>
       <c r="B132" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C132" t="s">
         <v>1</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E132" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>41662</v>
+        <v>41663</v>
       </c>
       <c r="B133" t="s">
         <v>3</v>
@@ -4415,21 +4428,21 @@
         <v>1</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E133" t="s">
         <v>4</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>41661</v>
+        <v>41662</v>
       </c>
       <c r="B134" t="s">
         <v>3</v>
@@ -4447,12 +4460,12 @@
         <v>16</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>41660</v>
+        <v>41661</v>
       </c>
       <c r="B135" t="s">
         <v>3</v>
@@ -4470,12 +4483,12 @@
         <v>16</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="B136" t="s">
         <v>3</v>
@@ -4493,12 +4506,12 @@
         <v>16</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>41656</v>
+        <v>41659</v>
       </c>
       <c r="B137" t="s">
         <v>3</v>
@@ -4513,15 +4526,15 @@
         <v>4</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="B138" t="s">
         <v>3</v>
@@ -4536,15 +4549,15 @@
         <v>4</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="B139" t="s">
         <v>3</v>
@@ -4553,7 +4566,7 @@
         <v>1</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E139" t="s">
         <v>4</v>
@@ -4562,12 +4575,12 @@
         <v>16</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="B140" t="s">
         <v>3</v>
@@ -4576,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E140" t="s">
         <v>4</v>
@@ -4585,12 +4598,12 @@
         <v>16</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B141" t="s">
         <v>3</v>
@@ -4599,7 +4612,7 @@
         <v>1</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E141" t="s">
         <v>4</v>
@@ -4608,7 +4621,7 @@
         <v>16</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -4616,50 +4629,50 @@
         <v>41652</v>
       </c>
       <c r="B142" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C142" t="s">
         <v>1</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E142" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B143" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C143" t="s">
         <v>1</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E143" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B144" t="s">
         <v>3</v>
@@ -4674,15 +4687,15 @@
         <v>4</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>41647</v>
+        <v>41648</v>
       </c>
       <c r="B145" t="s">
         <v>3</v>
@@ -4691,7 +4704,7 @@
         <v>1</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E145" t="s">
         <v>4</v>
@@ -4700,12 +4713,12 @@
         <v>24</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>41646</v>
+        <v>41647</v>
       </c>
       <c r="B146" t="s">
         <v>3</v>
@@ -4714,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E146" t="s">
         <v>4</v>
@@ -4723,12 +4736,12 @@
         <v>24</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>41645</v>
+        <v>41646</v>
       </c>
       <c r="B147" t="s">
         <v>3</v>
@@ -4746,12 +4759,12 @@
         <v>24</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>41642</v>
+        <v>41645</v>
       </c>
       <c r="B148" t="s">
         <v>3</v>
@@ -4766,37 +4779,57 @@
         <v>4</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E149" t="s">
+        <v>4</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
         <v>41641</v>
       </c>
-      <c r="B149" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149" t="s">
-        <v>1</v>
-      </c>
-      <c r="D149" s="2" t="s">
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E149" t="s">
-        <v>4</v>
-      </c>
-      <c r="F149" s="3" t="s">
+      <c r="E150" t="s">
+        <v>4</v>
+      </c>
+      <c r="F150" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G149" s="3" t="s">
+      <c r="G150" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
@@ -4806,6 +4839,9 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/backup/cuenta_2200555154.xlsx
+++ b/docs/backup/cuenta_2200555154.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="340">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -1038,6 +1038,12 @@
   </si>
   <si>
     <t>40.01</t>
+  </si>
+  <si>
+    <t>0000752194</t>
+  </si>
+  <si>
+    <t>40.02</t>
   </si>
 </sst>
 </file>
@@ -1360,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H154"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H1:H2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,7 +1381,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41921</v>
+        <v>41929</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -1384,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1393,43 +1399,43 @@
         <v>336</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H1" t="str">
         <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-09'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000752208', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.01  , 'mo_saldo' =&gt; 40.01, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-17'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000752194', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.01  , 'mo_saldo' =&gt; 40.02, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-24 16:29:01'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41918</v>
+        <v>41921</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>60</v>
+        <v>336</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H2" t="str">
         <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A2,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B2,"', 'mo_tipo' =&gt; '",C2,"', 'mo_documento' =&gt; '",D2,"', 'mo_oficina' =&gt; '",E2,"', 'mo_monto' =&gt; ",F2,", 'mo_saldo' =&gt; ",G2,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-06'), 'mo_concepto' =&gt; 'CR AH PROGRAMADO', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000356350', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 40.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-09'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000752208', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.01  , 'mo_saldo' =&gt; 40.01, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-24 16:29:01'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41886</v>
+        <v>41918</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -1438,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -1447,53 +1453,57 @@
         <v>60</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
+      </c>
+      <c r="H3" t="str">
+        <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A3,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B3,"', 'mo_tipo' =&gt; '",C3,"', 'mo_documento' =&gt; '",D3,"', 'mo_oficina' =&gt; '",E3,"', 'mo_monto' =&gt; ",F3,", 'mo_saldo' =&gt; ",G3,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-06'), 'mo_concepto' =&gt; 'CR AH PROGRAMADO', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000356350', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 40.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-24 16:29:01'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41844</v>
+        <v>41886</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E4" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>329</v>
+        <v>60</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41829</v>
+        <v>41844</v>
       </c>
       <c r="B5" t="s">
-        <v>309</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
         <v>192</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="E5" t="s">
         <v>236</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1501,50 +1511,50 @@
         <v>41829</v>
       </c>
       <c r="B6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E6" t="s">
         <v>236</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>312</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41827</v>
+        <v>41828</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1553,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -1562,12 +1572,12 @@
         <v>315</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41824</v>
+        <v>41827</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1576,16 +1586,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1593,45 +1603,45 @@
         <v>41824</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>60</v>
+        <v>318</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41823</v>
+        <v>41824</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>315</v>
+        <v>60</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1639,50 +1649,50 @@
         <v>41823</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E12" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41822</v>
+        <v>41823</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41821</v>
+        <v>41822</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1691,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -1700,12 +1710,12 @@
         <v>280</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41820</v>
+        <v>41821</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1723,12 +1733,12 @@
         <v>280</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41817</v>
+        <v>41820</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1737,21 +1747,21 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>183</v>
+        <v>280</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41816</v>
+        <v>41817</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1760,16 +1770,16 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>280</v>
+        <v>183</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1777,50 +1787,50 @@
         <v>41816</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E18" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41815</v>
+        <v>41816</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41814</v>
+        <v>41815</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1838,12 +1848,12 @@
         <v>265</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41813</v>
+        <v>41814</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1852,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -1861,7 +1871,7 @@
         <v>265</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1869,50 +1879,50 @@
         <v>41813</v>
       </c>
       <c r="B22" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E22" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41810</v>
+        <v>41813</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E23" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41809</v>
+        <v>41810</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1921,21 +1931,21 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41808</v>
+        <v>41809</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1944,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
@@ -1953,12 +1963,12 @@
         <v>265</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41807</v>
+        <v>41808</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1967,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -1976,12 +1986,12 @@
         <v>265</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41806</v>
+        <v>41807</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1990,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
@@ -1999,12 +2009,12 @@
         <v>265</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41803</v>
+        <v>41806</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -2013,21 +2023,21 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -2036,21 +2046,21 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41801</v>
+        <v>41802</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -2059,7 +2069,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -2068,12 +2078,12 @@
         <v>265</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41800</v>
+        <v>41801</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -2082,7 +2092,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -2091,12 +2101,12 @@
         <v>265</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41799</v>
+        <v>41800</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -2105,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -2114,12 +2124,12 @@
         <v>265</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41796</v>
+        <v>41799</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -2128,16 +2138,16 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2145,50 +2155,50 @@
         <v>41796</v>
       </c>
       <c r="B34" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E34" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41795</v>
+        <v>41796</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C35" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41794</v>
+        <v>41795</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -2197,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
@@ -2206,7 +2216,7 @@
         <v>234</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2214,50 +2224,50 @@
         <v>41794</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>60</v>
+        <v>234</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41793</v>
+        <v>41794</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41792</v>
+        <v>41793</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -2266,7 +2276,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
@@ -2275,12 +2285,12 @@
         <v>234</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41789</v>
+        <v>41792</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -2289,21 +2299,21 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41788</v>
+        <v>41789</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -2312,16 +2322,16 @@
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2329,50 +2339,50 @@
         <v>41788</v>
       </c>
       <c r="B42" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E42" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41787</v>
+        <v>41788</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C43" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E43" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41786</v>
+        <v>41787</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -2381,7 +2391,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E44" t="s">
         <v>4</v>
@@ -2390,12 +2400,12 @@
         <v>190</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41785</v>
+        <v>41786</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -2404,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
@@ -2413,12 +2423,12 @@
         <v>190</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41782</v>
+        <v>41785</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -2427,21 +2437,21 @@
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41781</v>
+        <v>41782</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -2450,16 +2460,16 @@
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2467,50 +2477,50 @@
         <v>41781</v>
       </c>
       <c r="B48" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E48" t="s">
-        <v>194</v>
+        <v>4</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41780</v>
+        <v>41781</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C49" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E49" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41779</v>
+        <v>41780</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -2519,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
@@ -2528,12 +2538,12 @@
         <v>197</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41778</v>
+        <v>41779</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -2542,7 +2552,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
@@ -2551,12 +2561,12 @@
         <v>197</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41775</v>
+        <v>41778</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -2565,21 +2575,21 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E52" t="s">
         <v>4</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41774</v>
+        <v>41775</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -2588,21 +2598,21 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E53" t="s">
         <v>4</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41773</v>
+        <v>41774</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -2611,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
@@ -2620,12 +2630,12 @@
         <v>197</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41772</v>
+        <v>41773</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -2634,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
@@ -2643,12 +2653,12 @@
         <v>197</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -2657,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E56" t="s">
         <v>4</v>
@@ -2666,12 +2676,12 @@
         <v>197</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -2680,21 +2690,21 @@
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E57" t="s">
         <v>4</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -2703,21 +2713,21 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E58" t="s">
         <v>4</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -2726,7 +2736,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E59" t="s">
         <v>4</v>
@@ -2735,7 +2745,7 @@
         <v>197</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2743,50 +2753,50 @@
         <v>41766</v>
       </c>
       <c r="B60" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E60" t="s">
-        <v>210</v>
+        <v>4</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41765</v>
+        <v>41766</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C61" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>210</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41764</v>
+        <v>41765</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -2795,7 +2805,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E62" t="s">
         <v>4</v>
@@ -2804,12 +2814,12 @@
         <v>89</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41761</v>
+        <v>41764</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -2818,21 +2828,21 @@
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E63" t="s">
         <v>4</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41759</v>
+        <v>41761</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
@@ -2841,21 +2851,21 @@
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="E64" t="s">
         <v>4</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41758</v>
+        <v>41759</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
@@ -2864,21 +2874,21 @@
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E65" t="s">
         <v>4</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41757</v>
+        <v>41758</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -2887,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E66" t="s">
         <v>4</v>
@@ -2896,12 +2906,12 @@
         <v>89</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41754</v>
+        <v>41757</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -2910,21 +2920,21 @@
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E67" t="s">
         <v>4</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41753</v>
+        <v>41754</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -2933,21 +2943,21 @@
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E68" t="s">
         <v>4</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41752</v>
+        <v>41753</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -2956,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E69" t="s">
         <v>4</v>
@@ -2965,12 +2975,12 @@
         <v>89</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -2979,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E70" t="s">
         <v>4</v>
@@ -2988,12 +2998,12 @@
         <v>89</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41750</v>
+        <v>41751</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -3002,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E71" t="s">
         <v>4</v>
@@ -3011,12 +3021,12 @@
         <v>89</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41746</v>
+        <v>41750</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
@@ -3025,21 +3035,21 @@
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="E72" t="s">
         <v>4</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41745</v>
+        <v>41746</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
@@ -3048,21 +3058,21 @@
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E73" t="s">
         <v>4</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41744</v>
+        <v>41745</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -3071,7 +3081,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E74" t="s">
         <v>4</v>
@@ -3080,12 +3090,12 @@
         <v>89</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41743</v>
+        <v>41744</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
@@ -3094,7 +3104,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E75" t="s">
         <v>4</v>
@@ -3103,12 +3113,12 @@
         <v>89</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41740</v>
+        <v>41743</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -3117,21 +3127,21 @@
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E76" t="s">
         <v>4</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41739</v>
+        <v>41740</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
@@ -3140,21 +3150,21 @@
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E77" t="s">
         <v>4</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41738</v>
+        <v>41739</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
@@ -3163,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E78" t="s">
         <v>4</v>
@@ -3172,12 +3182,12 @@
         <v>89</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41737</v>
+        <v>41738</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
@@ -3186,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E79" t="s">
         <v>4</v>
@@ -3195,12 +3205,12 @@
         <v>89</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41736</v>
+        <v>41737</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
@@ -3209,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E80" t="s">
         <v>4</v>
@@ -3218,12 +3228,12 @@
         <v>89</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41733</v>
+        <v>41736</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
@@ -3232,16 +3242,16 @@
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E81" t="s">
         <v>4</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3249,50 +3259,50 @@
         <v>41733</v>
       </c>
       <c r="B82" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E82" t="s">
         <v>4</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41732</v>
+        <v>41733</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E83" t="s">
         <v>4</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41731</v>
+        <v>41732</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
@@ -3301,7 +3311,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E84" t="s">
         <v>4</v>
@@ -3310,12 +3320,12 @@
         <v>89</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41730</v>
+        <v>41731</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
@@ -3324,7 +3334,7 @@
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E85" t="s">
         <v>4</v>
@@ -3333,12 +3343,12 @@
         <v>89</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
@@ -3347,7 +3357,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E86" t="s">
         <v>4</v>
@@ -3356,12 +3366,12 @@
         <v>89</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41726</v>
+        <v>41729</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
@@ -3370,21 +3380,21 @@
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E87" t="s">
         <v>4</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41724</v>
+        <v>41726</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
@@ -3393,21 +3403,21 @@
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E88" t="s">
         <v>4</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41723</v>
+        <v>41724</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -3416,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E89" t="s">
         <v>4</v>
@@ -3425,12 +3435,12 @@
         <v>89</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41722</v>
+        <v>41723</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
@@ -3439,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E90" t="s">
         <v>4</v>
@@ -3448,12 +3458,12 @@
         <v>89</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41719</v>
+        <v>41722</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -3462,21 +3472,21 @@
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E91" t="s">
         <v>4</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41718</v>
+        <v>41719</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
@@ -3485,21 +3495,21 @@
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E92" t="s">
         <v>4</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
@@ -3508,7 +3518,7 @@
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E93" t="s">
         <v>4</v>
@@ -3517,12 +3527,12 @@
         <v>89</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
@@ -3531,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E94" t="s">
         <v>4</v>
@@ -3540,12 +3550,12 @@
         <v>89</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
@@ -3554,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E95" t="s">
         <v>4</v>
@@ -3563,12 +3573,12 @@
         <v>89</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
@@ -3577,21 +3587,21 @@
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E96" t="s">
         <v>4</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41711</v>
+        <v>41712</v>
       </c>
       <c r="B97" t="s">
         <v>3</v>
@@ -3600,21 +3610,21 @@
         <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E97" t="s">
         <v>4</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41710</v>
+        <v>41711</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
@@ -3623,7 +3633,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E98" t="s">
         <v>4</v>
@@ -3632,12 +3642,12 @@
         <v>89</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41709</v>
+        <v>41710</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
@@ -3646,7 +3656,7 @@
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E99" t="s">
         <v>4</v>
@@ -3655,12 +3665,12 @@
         <v>89</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41708</v>
+        <v>41709</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
@@ -3669,7 +3679,7 @@
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E100" t="s">
         <v>4</v>
@@ -3678,12 +3688,12 @@
         <v>89</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41705</v>
+        <v>41708</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>
@@ -3692,21 +3702,21 @@
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E101" t="s">
         <v>4</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41704</v>
+        <v>41705</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
@@ -3715,21 +3725,21 @@
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E102" t="s">
         <v>4</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41703</v>
+        <v>41704</v>
       </c>
       <c r="B103" t="s">
         <v>3</v>
@@ -3738,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E103" t="s">
         <v>4</v>
@@ -3747,7 +3757,7 @@
         <v>89</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3755,50 +3765,50 @@
         <v>41703</v>
       </c>
       <c r="B104" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E104" t="s">
         <v>4</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E105" t="s">
         <v>4</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>41697</v>
+        <v>41698</v>
       </c>
       <c r="B106" t="s">
         <v>3</v>
@@ -3807,21 +3817,21 @@
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E106" t="s">
         <v>4</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41696</v>
+        <v>41697</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
@@ -3830,7 +3840,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E107" t="s">
         <v>4</v>
@@ -3839,12 +3849,12 @@
         <v>89</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>41695</v>
+        <v>41696</v>
       </c>
       <c r="B108" t="s">
         <v>3</v>
@@ -3853,7 +3863,7 @@
         <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E108" t="s">
         <v>4</v>
@@ -3862,12 +3872,12 @@
         <v>89</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>41694</v>
+        <v>41695</v>
       </c>
       <c r="B109" t="s">
         <v>3</v>
@@ -3876,7 +3886,7 @@
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E109" t="s">
         <v>4</v>
@@ -3885,12 +3895,12 @@
         <v>89</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>41691</v>
+        <v>41694</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
@@ -3899,21 +3909,21 @@
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E110" t="s">
         <v>4</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>41690</v>
+        <v>41691</v>
       </c>
       <c r="B111" t="s">
         <v>3</v>
@@ -3922,16 +3932,16 @@
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E111" t="s">
         <v>4</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3939,50 +3949,50 @@
         <v>41690</v>
       </c>
       <c r="B112" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E112" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E113" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>41688</v>
+        <v>41689</v>
       </c>
       <c r="B114" t="s">
         <v>3</v>
@@ -3991,7 +4001,7 @@
         <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E114" t="s">
         <v>4</v>
@@ -4000,12 +4010,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>41687</v>
+        <v>41688</v>
       </c>
       <c r="B115" t="s">
         <v>3</v>
@@ -4014,7 +4024,7 @@
         <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E115" t="s">
         <v>4</v>
@@ -4023,12 +4033,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B116" t="s">
         <v>3</v>
@@ -4037,21 +4047,21 @@
         <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E116" t="s">
         <v>4</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>41683</v>
+        <v>41684</v>
       </c>
       <c r="B117" t="s">
         <v>3</v>
@@ -4060,21 +4070,21 @@
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E117" t="s">
         <v>4</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>41682</v>
+        <v>41683</v>
       </c>
       <c r="B118" t="s">
         <v>3</v>
@@ -4083,7 +4093,7 @@
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E118" t="s">
         <v>4</v>
@@ -4092,12 +4102,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
@@ -4106,7 +4116,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E119" t="s">
         <v>4</v>
@@ -4115,12 +4125,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B120" t="s">
         <v>3</v>
@@ -4129,7 +4139,7 @@
         <v>1</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E120" t="s">
         <v>4</v>
@@ -4138,12 +4148,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B121" t="s">
         <v>3</v>
@@ -4152,21 +4162,21 @@
         <v>1</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E121" t="s">
         <v>4</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
@@ -4175,21 +4185,21 @@
         <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E122" t="s">
         <v>4</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B123" t="s">
         <v>3</v>
@@ -4198,7 +4208,7 @@
         <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E123" t="s">
         <v>4</v>
@@ -4207,12 +4217,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B124" t="s">
         <v>3</v>
@@ -4221,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E124" t="s">
         <v>4</v>
@@ -4230,7 +4240,7 @@
         <v>10</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -4238,50 +4248,50 @@
         <v>41674</v>
       </c>
       <c r="B125" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E125" t="s">
         <v>4</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>41673</v>
+        <v>41674</v>
       </c>
       <c r="B126" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C126" t="s">
         <v>1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E126" t="s">
         <v>4</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>41670</v>
+        <v>41673</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
@@ -4290,21 +4300,21 @@
         <v>1</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E127" t="s">
         <v>4</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>41669</v>
+        <v>41670</v>
       </c>
       <c r="B128" t="s">
         <v>3</v>
@@ -4313,21 +4323,21 @@
         <v>1</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E128" t="s">
         <v>4</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>41668</v>
+        <v>41669</v>
       </c>
       <c r="B129" t="s">
         <v>3</v>
@@ -4336,7 +4346,7 @@
         <v>1</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E129" t="s">
         <v>4</v>
@@ -4345,12 +4355,12 @@
         <v>10</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>41667</v>
+        <v>41668</v>
       </c>
       <c r="B130" t="s">
         <v>3</v>
@@ -4359,7 +4369,7 @@
         <v>1</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
         <v>4</v>
@@ -4368,12 +4378,12 @@
         <v>10</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>41666</v>
+        <v>41667</v>
       </c>
       <c r="B131" t="s">
         <v>3</v>
@@ -4382,7 +4392,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E131" t="s">
         <v>4</v>
@@ -4391,7 +4401,7 @@
         <v>10</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -4399,50 +4409,50 @@
         <v>41666</v>
       </c>
       <c r="B132" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C132" t="s">
         <v>1</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E132" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>41663</v>
+        <v>41666</v>
       </c>
       <c r="B133" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C133" t="s">
         <v>1</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E133" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>41662</v>
+        <v>41663</v>
       </c>
       <c r="B134" t="s">
         <v>3</v>
@@ -4451,21 +4461,21 @@
         <v>1</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E134" t="s">
         <v>4</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>41661</v>
+        <v>41662</v>
       </c>
       <c r="B135" t="s">
         <v>3</v>
@@ -4483,12 +4493,12 @@
         <v>16</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>41660</v>
+        <v>41661</v>
       </c>
       <c r="B136" t="s">
         <v>3</v>
@@ -4506,12 +4516,12 @@
         <v>16</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="B137" t="s">
         <v>3</v>
@@ -4529,12 +4539,12 @@
         <v>16</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>41656</v>
+        <v>41659</v>
       </c>
       <c r="B138" t="s">
         <v>3</v>
@@ -4549,15 +4559,15 @@
         <v>4</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="B139" t="s">
         <v>3</v>
@@ -4572,15 +4582,15 @@
         <v>4</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="B140" t="s">
         <v>3</v>
@@ -4589,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E140" t="s">
         <v>4</v>
@@ -4598,12 +4608,12 @@
         <v>16</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="B141" t="s">
         <v>3</v>
@@ -4612,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E141" t="s">
         <v>4</v>
@@ -4621,12 +4631,12 @@
         <v>16</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B142" t="s">
         <v>3</v>
@@ -4635,7 +4645,7 @@
         <v>1</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E142" t="s">
         <v>4</v>
@@ -4644,7 +4654,7 @@
         <v>16</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -4652,50 +4662,50 @@
         <v>41652</v>
       </c>
       <c r="B143" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C143" t="s">
         <v>1</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E143" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B144" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C144" t="s">
         <v>1</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E144" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B145" t="s">
         <v>3</v>
@@ -4710,15 +4720,15 @@
         <v>4</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>41647</v>
+        <v>41648</v>
       </c>
       <c r="B146" t="s">
         <v>3</v>
@@ -4727,7 +4737,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E146" t="s">
         <v>4</v>
@@ -4736,12 +4746,12 @@
         <v>24</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>41646</v>
+        <v>41647</v>
       </c>
       <c r="B147" t="s">
         <v>3</v>
@@ -4750,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E147" t="s">
         <v>4</v>
@@ -4759,12 +4769,12 @@
         <v>24</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>41645</v>
+        <v>41646</v>
       </c>
       <c r="B148" t="s">
         <v>3</v>
@@ -4782,12 +4792,12 @@
         <v>24</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>41642</v>
+        <v>41645</v>
       </c>
       <c r="B149" t="s">
         <v>3</v>
@@ -4802,37 +4812,57 @@
         <v>4</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E150" t="s">
+        <v>4</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
         <v>41641</v>
       </c>
-      <c r="B150" t="s">
-        <v>3</v>
-      </c>
-      <c r="C150" t="s">
-        <v>1</v>
-      </c>
-      <c r="D150" s="2" t="s">
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E150" t="s">
-        <v>4</v>
-      </c>
-      <c r="F150" s="3" t="s">
+      <c r="E151" t="s">
+        <v>4</v>
+      </c>
+      <c r="F151" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G150" s="3" t="s">
+      <c r="G151" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
@@ -4842,6 +4872,9 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
